--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>9.846939882832595</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>21.56765831831009</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>43.12238619917307</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>121.209806623314</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.533828788602674</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -441,129 +444,816 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>100.1382178267225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3">
+        <v>8.348867853008928</v>
+      </c>
+      <c r="D3">
+        <v>17.98982350758059</v>
+      </c>
+      <c r="E3">
+        <v>35.37791101891701</v>
+      </c>
+      <c r="F3">
+        <v>101.9663339442895</v>
+      </c>
+      <c r="G3">
+        <v>1.676941979065973</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>84.16518059239384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="C4">
+        <v>7.686306283341585</v>
+      </c>
+      <c r="D4">
+        <v>16.47145251541185</v>
+      </c>
+      <c r="E4">
+        <v>32.2449660065372</v>
+      </c>
+      <c r="F4">
+        <v>93.62415519563079</v>
+      </c>
+      <c r="G4">
+        <v>1.733054959758043</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>77.25107711611277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="C5">
+        <v>7.435940407566352</v>
+      </c>
+      <c r="D5">
+        <v>15.9046430160503</v>
+      </c>
+      <c r="E5">
+        <v>31.09084756335043</v>
+      </c>
+      <c r="F5">
+        <v>90.4923944335555</v>
+      </c>
+      <c r="G5">
+        <v>1.753282300219169</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>74.65607014922564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="C6">
+        <v>7.395137452094154</v>
+      </c>
+      <c r="D6">
+        <v>15.81258605962348</v>
+      </c>
+      <c r="E6">
+        <v>30.90409011386416</v>
+      </c>
+      <c r="F6">
+        <v>89.98300697329543</v>
+      </c>
+      <c r="G6">
+        <v>1.756530453139611</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>74.23400237919724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="C7">
+        <v>7.682871038730779</v>
+      </c>
+      <c r="D7">
+        <v>16.46365184790125</v>
+      </c>
+      <c r="E7">
+        <v>32.22903118965709</v>
+      </c>
+      <c r="F7">
+        <v>93.58111176075589</v>
+      </c>
+      <c r="G7">
+        <v>1.733335997270231</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>77.21540942977001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="C8">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D8">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E8">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F8">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G8">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="C9">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D9">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E9">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F9">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G9">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="C10">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D10">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E10">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F10">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G10">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="C11">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D11">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E11">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F11">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G11">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="C12">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D12">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E12">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F12">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G12">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="C13">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D13">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E13">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F13">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G13">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="C14">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D14">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E14">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F14">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G14">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="C15">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D15">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E15">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F15">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G15">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D16">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E16">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F16">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G16">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D17">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E17">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F17">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G17">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D18">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E18">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F18">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G18">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D19">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E19">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F19">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G19">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D20">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E20">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F20">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G20">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D21">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E21">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F21">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G21">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D22">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E22">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F22">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G22">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D23">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E23">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F23">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G23">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D24">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E24">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F24">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G24">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>93.26900797090968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>9.209417990751737</v>
+      </c>
+      <c r="D25">
+        <v>20.01377631666503</v>
+      </c>
+      <c r="E25">
+        <v>39.67868146470626</v>
+      </c>
+      <c r="F25">
+        <v>112.9411916338675</v>
+      </c>
+      <c r="G25">
+        <v>1.597825491697468</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>93.26900797090968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -420,840 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>9.846939882832595</v>
+        <v>4.390623162103484</v>
       </c>
       <c r="D2">
-        <v>21.56765831831009</v>
+        <v>7.337167937537238</v>
       </c>
       <c r="E2">
-        <v>43.12238619917307</v>
+        <v>21.02520270336575</v>
       </c>
       <c r="F2">
-        <v>121.209806623314</v>
+        <v>12.79084407326019</v>
       </c>
       <c r="G2">
-        <v>1.533828788602674</v>
+        <v>1.997768864330743</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.18719480449331</v>
       </c>
       <c r="J2">
+        <v>13.97606747706151</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>100.2011772215539</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
       <c r="O2">
-        <v>100.1382178267225</v>
+        <v>13.09619733860445</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>8.348867853008928</v>
+        <v>4.081308295567866</v>
       </c>
       <c r="D3">
-        <v>17.98982350758059</v>
+        <v>6.736767303242158</v>
       </c>
       <c r="E3">
-        <v>35.37791101891701</v>
+        <v>19.21804343112563</v>
       </c>
       <c r="F3">
-        <v>101.9663339442895</v>
+        <v>10.83441422699671</v>
       </c>
       <c r="G3">
-        <v>1.676941979065973</v>
+        <v>2.012684258770677</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.76117130145886</v>
       </c>
       <c r="J3">
+        <v>12.8042306807318</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3">
+        <v>92.58023687539597</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
       <c r="O3">
-        <v>84.16518059239384</v>
+        <v>11.5739761648595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>7.686306283341585</v>
+        <v>3.883413554688635</v>
       </c>
       <c r="D4">
-        <v>16.47145251541185</v>
+        <v>6.371043963236481</v>
       </c>
       <c r="E4">
-        <v>32.2449660065372</v>
+        <v>18.10915581367127</v>
       </c>
       <c r="F4">
-        <v>93.62415519563079</v>
+        <v>9.892888656709836</v>
       </c>
       <c r="G4">
-        <v>1.733054959758043</v>
+        <v>2.021670586950587</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.04770912963225</v>
       </c>
       <c r="J4">
+        <v>12.08105218105905</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4">
+        <v>87.79069815687629</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
       <c r="O4">
-        <v>77.25107711611277</v>
+        <v>10.84818212794731</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>7.435940407566352</v>
+        <v>3.80060181530955</v>
       </c>
       <c r="D5">
-        <v>15.9046430160503</v>
+        <v>6.221939981928757</v>
       </c>
       <c r="E5">
-        <v>31.09084756335043</v>
+        <v>17.65503757865927</v>
       </c>
       <c r="F5">
-        <v>90.4923944335555</v>
+        <v>9.826065404099445</v>
       </c>
       <c r="G5">
-        <v>1.753282300219169</v>
+        <v>2.025309369586784</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.92761324030765</v>
       </c>
       <c r="J5">
+        <v>11.78389806052305</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5">
+        <v>85.80431389732682</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="O5">
-        <v>74.65607014922564</v>
+        <v>10.74696082112003</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>7.395137452094154</v>
+        <v>3.786716028485933</v>
       </c>
       <c r="D6">
-        <v>15.81258605962348</v>
+        <v>6.197158265325824</v>
       </c>
       <c r="E6">
-        <v>30.90409011386416</v>
+        <v>17.57943769744984</v>
       </c>
       <c r="F6">
-        <v>89.98300697329543</v>
+        <v>9.819117643883992</v>
       </c>
       <c r="G6">
-        <v>1.756530453139611</v>
+        <v>2.025912677848873</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.90892741680372</v>
       </c>
       <c r="J6">
+        <v>11.73436992398227</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6">
+        <v>85.47221577745836</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6">
-        <v>74.23400237919724</v>
+        <v>10.73180167707987</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>7.682871038730779</v>
+        <v>3.882305691081126</v>
       </c>
       <c r="D7">
-        <v>16.46365184790125</v>
+        <v>6.369034258739538</v>
       </c>
       <c r="E7">
-        <v>32.22903118965709</v>
+        <v>18.10304320548042</v>
       </c>
       <c r="F7">
-        <v>93.58111176075589</v>
+        <v>9.891703095998887</v>
       </c>
       <c r="G7">
-        <v>1.733335997270231</v>
+        <v>2.021719731992625</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.04600395327275</v>
       </c>
       <c r="J7">
+        <v>12.07705633873959</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <v>87.76405709957491</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
       <c r="O7">
-        <v>77.21540942977001</v>
+        <v>10.8467045301813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>9.209417990751737</v>
+        <v>4.285513935369481</v>
       </c>
       <c r="D8">
-        <v>20.01377631666503</v>
+        <v>7.128971561052576</v>
       </c>
       <c r="E8">
-        <v>39.67868146470626</v>
+        <v>20.40026063353373</v>
       </c>
       <c r="F8">
-        <v>112.9411916338675</v>
+        <v>12.07746432041386</v>
       </c>
       <c r="G8">
-        <v>1.597825491697468</v>
+        <v>2.002961119047834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.68726073440818</v>
       </c>
       <c r="J8">
+        <v>13.57172132706762</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>97.59161313239278</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="O8">
-        <v>93.26900797090968</v>
+        <v>12.55914062719289</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>9.209417990751737</v>
+        <v>5.023716762965432</v>
       </c>
       <c r="D9">
-        <v>20.01377631666503</v>
+        <v>8.698976252253484</v>
       </c>
       <c r="E9">
-        <v>39.67868146470626</v>
+        <v>25.07388616725942</v>
       </c>
       <c r="F9">
-        <v>112.9411916338675</v>
+        <v>18.04466464971639</v>
       </c>
       <c r="G9">
-        <v>1.597825491697468</v>
+        <v>1.96350198228877</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.53951291967962</v>
       </c>
       <c r="J9">
+        <v>16.57497533693871</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>116.441618245081</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
-        <v>93.26900797090968</v>
+        <v>16.76392534143946</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>9.209417990751737</v>
+        <v>5.560751667631531</v>
       </c>
       <c r="D10">
-        <v>20.01377631666503</v>
+        <v>10.04631027827806</v>
       </c>
       <c r="E10">
-        <v>39.67868146470626</v>
+        <v>29.01722275409973</v>
       </c>
       <c r="F10">
-        <v>112.9411916338675</v>
+        <v>23.74439159936648</v>
       </c>
       <c r="G10">
-        <v>1.597825491697468</v>
+        <v>1.929715231398802</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.87537132530618</v>
       </c>
       <c r="J10">
+        <v>19.07486523171841</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>131.141786000509</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
       <c r="O10">
-        <v>93.26900797090968</v>
+        <v>20.49251263282076</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>9.209417990751737</v>
+        <v>5.818608587589784</v>
       </c>
       <c r="D11">
-        <v>20.01377631666503</v>
+        <v>10.78266889321543</v>
       </c>
       <c r="E11">
-        <v>39.67868146470626</v>
+        <v>31.14522068161106</v>
       </c>
       <c r="F11">
-        <v>112.9411916338675</v>
+        <v>26.91729713727477</v>
       </c>
       <c r="G11">
-        <v>1.597825491697468</v>
+        <v>1.911622548383433</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>21.65784203528514</v>
       </c>
       <c r="J11">
+        <v>20.41176726579952</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>138.6151555774837</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="O11">
-        <v>93.26900797090968</v>
+        <v>22.50913701818548</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>9.209417990751737</v>
+        <v>5.921473965209334</v>
       </c>
       <c r="D12">
-        <v>20.01377631666503</v>
+        <v>11.09733512254101</v>
       </c>
       <c r="E12">
-        <v>39.67868146470626</v>
+        <v>32.04834823326815</v>
       </c>
       <c r="F12">
-        <v>112.9411916338675</v>
+        <v>28.27052721431693</v>
       </c>
       <c r="G12">
-        <v>1.597825491697468</v>
+        <v>1.904017790998915</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>22.40482039470715</v>
       </c>
       <c r="J12">
+        <v>20.97662535698784</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>141.6901303036147</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="O12">
-        <v>93.26900797090968</v>
+        <v>23.3588631929554</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>9.209417990751737</v>
+        <v>5.898985900697577</v>
       </c>
       <c r="D13">
-        <v>20.01377631666503</v>
+        <v>11.02741175716779</v>
       </c>
       <c r="E13">
-        <v>39.67868146470626</v>
+        <v>31.84799100066557</v>
       </c>
       <c r="F13">
-        <v>112.9411916338675</v>
+        <v>27.97021639095304</v>
       </c>
       <c r="G13">
-        <v>1.597825491697468</v>
+        <v>1.905700201734218</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>22.23970315324985</v>
       </c>
       <c r="J13">
+        <v>20.85144188999668</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>141.0129030521256</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
       <c r="O13">
-        <v>93.26900797090968</v>
+        <v>23.17080167602644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>9.209417990751737</v>
+        <v>5.826932599028449</v>
       </c>
       <c r="D14">
-        <v>20.01377631666503</v>
+        <v>10.80765067450774</v>
       </c>
       <c r="E14">
-        <v>39.67868146470626</v>
+        <v>31.21706024755601</v>
       </c>
       <c r="F14">
-        <v>112.9411916338675</v>
+        <v>27.02487640182103</v>
       </c>
       <c r="G14">
-        <v>1.597825491697468</v>
+        <v>1.911015719375406</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.71750446913357</v>
       </c>
       <c r="J14">
+        <v>20.45675397343854</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>138.8618578452635</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
       <c r="O14">
-        <v>93.26900797090968</v>
+        <v>22.57690687297269</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>9.209417990751737</v>
+        <v>5.783643185237937</v>
       </c>
       <c r="D15">
-        <v>20.01377631666503</v>
+        <v>10.67861721944875</v>
       </c>
       <c r="E15">
-        <v>39.67868146470626</v>
+        <v>30.84574648567511</v>
       </c>
       <c r="F15">
-        <v>112.9411916338675</v>
+        <v>26.46903448972342</v>
       </c>
       <c r="G15">
-        <v>1.597825491697468</v>
+        <v>1.914155459109225</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>21.40871229446676</v>
       </c>
       <c r="J15">
+        <v>20.22413088867319</v>
+      </c>
+      <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>137.5828153579396</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
-        <v>93.26900797090968</v>
+        <v>22.22634027577822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>9.209417990751737</v>
+        <v>5.544376846639992</v>
       </c>
       <c r="D16">
-        <v>20.01377631666503</v>
+        <v>10.00180073469081</v>
       </c>
       <c r="E16">
-        <v>39.67868146470626</v>
+        <v>28.88796021153213</v>
       </c>
       <c r="F16">
-        <v>112.9411916338675</v>
+        <v>23.55296674183461</v>
       </c>
       <c r="G16">
-        <v>1.597825491697468</v>
+        <v>1.9308200161258</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.76634763787135</v>
       </c>
       <c r="J16">
+        <v>18.99338577456784</v>
+      </c>
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>130.6774684920965</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
       <c r="O16">
-        <v>93.26900797090968</v>
+        <v>20.36968333582654</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>9.209417990751737</v>
+        <v>5.402485335179509</v>
       </c>
       <c r="D17">
-        <v>20.01377631666503</v>
+        <v>9.626074609815158</v>
       </c>
       <c r="E17">
-        <v>39.67868146470626</v>
+        <v>27.79399837219585</v>
       </c>
       <c r="F17">
-        <v>112.9411916338675</v>
+        <v>21.94218403920116</v>
       </c>
       <c r="G17">
-        <v>1.597825491697468</v>
+        <v>1.940185963251566</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.84158631586221</v>
       </c>
       <c r="J17">
+        <v>18.30256306431516</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>126.7002706307494</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
       <c r="O17">
-        <v>93.26900797090968</v>
+        <v>19.33031312554389</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>9.209417990751737</v>
+        <v>5.321872817158766</v>
       </c>
       <c r="D18">
-        <v>20.01377631666503</v>
+        <v>9.420058666219985</v>
       </c>
       <c r="E18">
-        <v>39.67868146470626</v>
+        <v>27.19207363197879</v>
       </c>
       <c r="F18">
-        <v>112.9411916338675</v>
+        <v>21.06447460517333</v>
       </c>
       <c r="G18">
-        <v>1.597825491697468</v>
+        <v>1.945347195773952</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.33176533844004</v>
       </c>
       <c r="J18">
+        <v>17.9214930419297</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>124.4755606357743</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
       <c r="O18">
-        <v>93.26900797090968</v>
+        <v>18.75927624349498</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>9.209417990751737</v>
+        <v>5.294697356881246</v>
       </c>
       <c r="D19">
-        <v>20.01377631666503</v>
+        <v>9.351743656484111</v>
       </c>
       <c r="E19">
-        <v>39.67868146470626</v>
+        <v>26.99215287061113</v>
       </c>
       <c r="F19">
-        <v>112.9411916338675</v>
+        <v>20.77456718033054</v>
       </c>
       <c r="G19">
-        <v>1.597825491697468</v>
+        <v>1.947061941906171</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.16237916216415</v>
       </c>
       <c r="J19">
+        <v>17.7947738191965</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>123.730944082426</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
       <c r="O19">
-        <v>93.26900797090968</v>
+        <v>18.56987263840126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>9.209417990751737</v>
+        <v>5.417472785128904</v>
       </c>
       <c r="D20">
-        <v>20.01377631666503</v>
+        <v>9.664950994005896</v>
       </c>
       <c r="E20">
-        <v>39.67868146470626</v>
+        <v>27.90742027405055</v>
       </c>
       <c r="F20">
-        <v>112.9411916338675</v>
+        <v>22.10832173577592</v>
       </c>
       <c r="G20">
-        <v>1.597825491697468</v>
+        <v>1.939213858688099</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.93759965230322</v>
       </c>
       <c r="J20">
+        <v>18.37429210351282</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>127.1165868511146</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
       <c r="O20">
-        <v>93.26900797090968</v>
+        <v>19.43801446508245</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>9.209417990751737</v>
+        <v>5.847907205784201</v>
       </c>
       <c r="D21">
-        <v>20.01377631666503</v>
+        <v>10.87096603553559</v>
       </c>
       <c r="E21">
-        <v>39.67868146470626</v>
+        <v>31.39902809665211</v>
       </c>
       <c r="F21">
-        <v>112.9411916338675</v>
+        <v>27.29743891883696</v>
       </c>
       <c r="G21">
-        <v>1.597825491697468</v>
+        <v>1.909480044035315</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>21.86844745147718</v>
       </c>
       <c r="J21">
+        <v>20.57066169677397</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>139.4851204737075</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
       <c r="O21">
-        <v>93.26900797090968</v>
+        <v>22.74843826148869</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>9.209417990751737</v>
+        <v>6.166495822464448</v>
       </c>
       <c r="D22">
-        <v>20.01377631666503</v>
+        <v>11.90545615606811</v>
       </c>
       <c r="E22">
-        <v>39.67868146470626</v>
+        <v>34.34982297786485</v>
       </c>
       <c r="F22">
-        <v>112.9411916338675</v>
+        <v>31.71418631988813</v>
       </c>
       <c r="G22">
-        <v>1.597825491697468</v>
+        <v>1.884923999433253</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>24.27228500791489</v>
       </c>
       <c r="J22">
+        <v>22.40932932320325</v>
+      </c>
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
+      <c r="M22">
+        <v>149.2894627303867</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
-        <v>93.26900797090968</v>
+        <v>25.49503241019447</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>9.209417990751737</v>
+        <v>5.990208878461956</v>
       </c>
       <c r="D23">
-        <v>20.01377631666503</v>
+        <v>11.31521390669682</v>
       </c>
       <c r="E23">
-        <v>39.67868146470626</v>
+        <v>32.67142585803636</v>
       </c>
       <c r="F23">
-        <v>112.9411916338675</v>
+        <v>29.20436566985676</v>
       </c>
       <c r="G23">
-        <v>1.597825491697468</v>
+        <v>1.898804584710643</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>22.9159211163161</v>
       </c>
       <c r="J23">
+        <v>21.36545512553002</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>143.7782207847484</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
       <c r="O23">
-        <v>93.26900797090968</v>
+        <v>23.94181986882235</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>9.209417990751737</v>
+        <v>5.410694136152887</v>
       </c>
       <c r="D24">
-        <v>20.01377631666503</v>
+        <v>9.647344827349881</v>
       </c>
       <c r="E24">
-        <v>39.67868146470626</v>
+        <v>27.85606077182006</v>
       </c>
       <c r="F24">
-        <v>112.9411916338675</v>
+        <v>22.03306397076082</v>
       </c>
       <c r="G24">
-        <v>1.597825491697468</v>
+        <v>1.939654023165227</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.89412585408711</v>
       </c>
       <c r="J24">
+        <v>18.34181489647394</v>
+      </c>
+      <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>126.9281848316162</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
       <c r="O24">
-        <v>93.26900797090968</v>
+        <v>19.3892422904301</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>9.209417990751737</v>
+        <v>4.827708382231021</v>
       </c>
       <c r="D25">
-        <v>20.01377631666503</v>
+        <v>8.255406853671278</v>
       </c>
       <c r="E25">
-        <v>39.67868146470626</v>
+        <v>23.76220735728028</v>
       </c>
       <c r="F25">
-        <v>112.9411916338675</v>
+        <v>16.24894993147472</v>
       </c>
       <c r="G25">
-        <v>1.597825491697468</v>
+        <v>1.974695102746815</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.43775014243868</v>
       </c>
       <c r="J25">
+        <v>15.73672910190474</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>111.3068361857946</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
       <c r="O25">
-        <v>93.26900797090968</v>
+        <v>15.54787713175397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.390623162103484</v>
+        <v>3.652199498345238</v>
       </c>
       <c r="D2">
-        <v>7.337167937537238</v>
+        <v>8.508238405086999</v>
       </c>
       <c r="E2">
-        <v>21.02520270336575</v>
+        <v>14.56323218744964</v>
       </c>
       <c r="F2">
-        <v>12.79084407326019</v>
+        <v>26.42636969429876</v>
       </c>
       <c r="G2">
-        <v>1.997768864330743</v>
+        <v>3.624852916187835</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.18719480449331</v>
+        <v>19.77888151176193</v>
       </c>
       <c r="J2">
-        <v>13.97606747706151</v>
+        <v>10.04232738920865</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>100.2011772215539</v>
+        <v>59.30097334940334</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.09619733860445</v>
+        <v>21.15787771143988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.081308295567866</v>
+        <v>3.571563585323085</v>
       </c>
       <c r="D3">
-        <v>6.736767303242158</v>
+        <v>8.508093432694199</v>
       </c>
       <c r="E3">
-        <v>19.21804343112563</v>
+        <v>14.25333899226064</v>
       </c>
       <c r="F3">
-        <v>10.83441422699671</v>
+        <v>26.95840458236166</v>
       </c>
       <c r="G3">
-        <v>2.012684258770677</v>
+        <v>3.628753009019529</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.76117130145886</v>
+        <v>20.00033415973993</v>
       </c>
       <c r="J3">
-        <v>12.8042306807318</v>
+        <v>9.926439152986541</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>92.58023687539597</v>
+        <v>55.86825641251506</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.5739761648595</v>
+        <v>21.43837450337134</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.883413554688635</v>
+        <v>3.521042329243335</v>
       </c>
       <c r="D4">
-        <v>6.371043963236481</v>
+        <v>8.510840264752236</v>
       </c>
       <c r="E4">
-        <v>18.10915581367127</v>
+        <v>14.06607982705072</v>
       </c>
       <c r="F4">
-        <v>9.892888656709836</v>
+        <v>27.30145707343211</v>
       </c>
       <c r="G4">
-        <v>2.021670586950587</v>
+        <v>3.631248651908727</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.04770912963225</v>
+        <v>20.14740727707387</v>
       </c>
       <c r="J4">
-        <v>12.08105218105905</v>
+        <v>9.858841240909246</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>87.79069815687629</v>
+        <v>53.64128896996389</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.84818212794731</v>
+        <v>21.62259288461614</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.80060181530955</v>
+        <v>3.500223438909691</v>
       </c>
       <c r="D5">
-        <v>6.221939981928757</v>
+        <v>8.512668214724659</v>
       </c>
       <c r="E5">
-        <v>17.65503757865927</v>
+        <v>13.99063568513866</v>
       </c>
       <c r="F5">
-        <v>9.826065404099445</v>
+        <v>27.44532905050861</v>
       </c>
       <c r="G5">
-        <v>2.025309369586784</v>
+        <v>3.632291195082761</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.92761324030765</v>
+        <v>20.21008204590119</v>
       </c>
       <c r="J5">
-        <v>11.78389806052305</v>
+        <v>9.832211485452877</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85.80431389732682</v>
+        <v>52.7040214916205</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.74696082112003</v>
+        <v>21.7006283909836</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.786716028485933</v>
+        <v>3.496753219651361</v>
       </c>
       <c r="D6">
-        <v>6.197158265325824</v>
+        <v>8.51301440687709</v>
       </c>
       <c r="E6">
-        <v>17.57943769744984</v>
+        <v>13.97816366302223</v>
       </c>
       <c r="F6">
-        <v>9.819117643883992</v>
+        <v>27.46946381843027</v>
       </c>
       <c r="G6">
-        <v>2.025912677848873</v>
+        <v>3.632465856214326</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.90892741680372</v>
+        <v>20.22065328266554</v>
       </c>
       <c r="J6">
-        <v>11.73436992398227</v>
+        <v>9.827845635821102</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85.47221577745836</v>
+        <v>52.54659977517647</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.73180167707987</v>
+        <v>21.71376377730898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.882305691081126</v>
+        <v>3.520762462646728</v>
       </c>
       <c r="D7">
-        <v>6.369034258739538</v>
+        <v>8.510862054107967</v>
       </c>
       <c r="E7">
-        <v>18.10304320548042</v>
+        <v>14.06505871444261</v>
       </c>
       <c r="F7">
-        <v>9.891703095998887</v>
+        <v>27.30338093522963</v>
       </c>
       <c r="G7">
-        <v>2.021719731992625</v>
+        <v>3.631262608357702</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.04600395327275</v>
+        <v>20.14824149625992</v>
       </c>
       <c r="J7">
-        <v>12.07705633873959</v>
+        <v>9.858478361758593</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>87.76405709957491</v>
+        <v>53.62876879022962</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.8467045301813</v>
+        <v>21.62363335835962</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.285513935369481</v>
+        <v>3.624619376485157</v>
       </c>
       <c r="D8">
-        <v>7.128971561052576</v>
+        <v>8.507597172123518</v>
       </c>
       <c r="E8">
-        <v>20.40026063353373</v>
+        <v>14.45581863994214</v>
       </c>
       <c r="F8">
-        <v>12.07746432041386</v>
+        <v>26.60638783832777</v>
       </c>
       <c r="G8">
-        <v>2.002961119047834</v>
+        <v>3.626176809035309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.68726073440818</v>
+        <v>19.85290391831137</v>
       </c>
       <c r="J8">
-        <v>13.57172132706762</v>
+        <v>10.00164448470932</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>97.59161313239278</v>
+        <v>58.14224091554458</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.55914062719289</v>
+        <v>21.25207287878998</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.023716762965432</v>
+        <v>3.819320157650975</v>
       </c>
       <c r="D9">
-        <v>8.698976252253484</v>
+        <v>8.523893710805078</v>
       </c>
       <c r="E9">
-        <v>25.07388616725942</v>
+        <v>15.24144175180943</v>
       </c>
       <c r="F9">
-        <v>18.04466464971639</v>
+        <v>25.37174406917842</v>
       </c>
       <c r="G9">
-        <v>1.96350198228877</v>
+        <v>3.616997218142379</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.53951291967962</v>
+        <v>19.36414896633758</v>
       </c>
       <c r="J9">
-        <v>16.57497533693871</v>
+        <v>10.30958319456608</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>116.441618245081</v>
+        <v>66.04031886418925</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.76392534143946</v>
+        <v>20.62098485490606</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.560751667631531</v>
+        <v>3.955735956219571</v>
       </c>
       <c r="D10">
-        <v>10.04631027827806</v>
+        <v>8.549970700274965</v>
       </c>
       <c r="E10">
-        <v>29.01722275409973</v>
+        <v>15.82453854203393</v>
       </c>
       <c r="F10">
-        <v>23.74439159936648</v>
+        <v>24.54861338187423</v>
       </c>
       <c r="G10">
-        <v>1.929715231398802</v>
+        <v>3.610725892585874</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.87537132530618</v>
+        <v>19.06349917552512</v>
       </c>
       <c r="J10">
-        <v>19.07486523171841</v>
+        <v>10.5509475264158</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>131.141786000509</v>
+        <v>71.25750463883331</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.49251263282076</v>
+        <v>20.22027201267074</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.818608587589784</v>
+        <v>4.016136596388749</v>
       </c>
       <c r="D11">
-        <v>10.78266889321543</v>
+        <v>8.564950294937338</v>
       </c>
       <c r="E11">
-        <v>31.14522068161106</v>
+        <v>16.08993380379614</v>
       </c>
       <c r="F11">
-        <v>26.91729713727477</v>
+        <v>24.19326256003719</v>
       </c>
       <c r="G11">
-        <v>1.911622548383433</v>
+        <v>3.607973137072299</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.65784203528514</v>
+        <v>18.94017631186484</v>
       </c>
       <c r="J11">
-        <v>20.41176726579952</v>
+        <v>10.66371349979877</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>138.6151555774837</v>
+        <v>73.50369623684723</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.50913701818548</v>
+        <v>20.05246646693502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.921473965209334</v>
+        <v>4.038754326674719</v>
       </c>
       <c r="D12">
-        <v>11.09733512254101</v>
+        <v>8.571074943662774</v>
       </c>
       <c r="E12">
-        <v>32.04834823326815</v>
+        <v>16.19036431557736</v>
       </c>
       <c r="F12">
-        <v>28.27052721431693</v>
+        <v>24.06153268000726</v>
       </c>
       <c r="G12">
-        <v>1.904017790998915</v>
+        <v>3.606944934305383</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.40482039470715</v>
+        <v>18.89547674775369</v>
       </c>
       <c r="J12">
-        <v>20.97662535698784</v>
+        <v>10.70681465393855</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>141.6901303036147</v>
+        <v>74.33601733690473</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.3588631929554</v>
+        <v>19.9910787082395</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.898985900697577</v>
+        <v>4.033894770322491</v>
       </c>
       <c r="D13">
-        <v>11.02741175716779</v>
+        <v>8.569735717482645</v>
       </c>
       <c r="E13">
-        <v>31.84799100066557</v>
+        <v>16.16873922230394</v>
       </c>
       <c r="F13">
-        <v>27.97021639095304</v>
+        <v>24.08977552240582</v>
       </c>
       <c r="G13">
-        <v>1.905700201734218</v>
+        <v>3.607165747419454</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.23970315324985</v>
+        <v>18.90501355125035</v>
       </c>
       <c r="J13">
-        <v>20.85144188999668</v>
+        <v>10.69751473479682</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>141.0129030521256</v>
+        <v>74.15757377843495</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.17080167602644</v>
+        <v>20.00420251941064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.826932599028449</v>
+        <v>4.018002565021641</v>
       </c>
       <c r="D14">
-        <v>10.80765067450774</v>
+        <v>8.565445088521551</v>
       </c>
       <c r="E14">
-        <v>31.21706024755601</v>
+        <v>16.09819815100667</v>
       </c>
       <c r="F14">
-        <v>27.02487640182103</v>
+        <v>24.18236773016232</v>
       </c>
       <c r="G14">
-        <v>1.911015719375406</v>
+        <v>3.607888262605317</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.71750446913357</v>
+        <v>18.93645837453534</v>
       </c>
       <c r="J14">
-        <v>20.45675397343854</v>
+        <v>10.66725161596109</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>138.8618578452635</v>
+        <v>73.57253761336699</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.57690687297269</v>
+        <v>20.04737239817896</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.783643185237937</v>
+        <v>4.00823449441869</v>
       </c>
       <c r="D15">
-        <v>10.67861721944875</v>
+        <v>8.562875959672908</v>
       </c>
       <c r="E15">
-        <v>30.84574648567511</v>
+        <v>16.05497819874421</v>
       </c>
       <c r="F15">
-        <v>26.46903448972342</v>
+        <v>24.23945495685137</v>
       </c>
       <c r="G15">
-        <v>1.914155459109225</v>
+        <v>3.608332668359762</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.40871229446676</v>
+        <v>18.95598173924225</v>
       </c>
       <c r="J15">
-        <v>20.22413088867319</v>
+        <v>10.64876574412804</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>137.5828153579396</v>
+        <v>73.21180868914328</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.22634027577822</v>
+        <v>20.07409831876092</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.544376846639992</v>
+        <v>3.951753865601054</v>
       </c>
       <c r="D16">
-        <v>10.00180073469081</v>
+        <v>8.549054814564442</v>
       </c>
       <c r="E16">
-        <v>28.88796021153213</v>
+        <v>15.80718940281959</v>
       </c>
       <c r="F16">
-        <v>23.55296674183461</v>
+        <v>24.57222791877573</v>
       </c>
       <c r="G16">
-        <v>1.9308200161258</v>
+        <v>3.610907789960211</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.76634763787135</v>
+        <v>19.07183480592668</v>
       </c>
       <c r="J16">
-        <v>18.99338577456784</v>
+        <v>10.54363535763028</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>130.6774684920965</v>
+        <v>71.10815349537391</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.36968333582654</v>
+        <v>20.23153614015363</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.402485335179509</v>
+        <v>3.916668526471727</v>
       </c>
       <c r="D17">
-        <v>9.626074609815158</v>
+        <v>8.541377214873126</v>
       </c>
       <c r="E17">
-        <v>27.79399837219585</v>
+        <v>15.6551496475113</v>
       </c>
       <c r="F17">
-        <v>21.94218403920116</v>
+        <v>24.7813234539644</v>
       </c>
       <c r="G17">
-        <v>1.940185963251566</v>
+        <v>3.612513049900354</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.84158631586221</v>
+        <v>19.14639708614338</v>
       </c>
       <c r="J17">
-        <v>18.30256306431516</v>
+        <v>10.47988169717248</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>126.7002706307494</v>
+        <v>69.78507224258263</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.33031312554389</v>
+        <v>20.33187951157509</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.321872817158766</v>
+        <v>3.896333437795435</v>
       </c>
       <c r="D18">
-        <v>9.420058666219985</v>
+        <v>8.537254425784264</v>
       </c>
       <c r="E18">
-        <v>27.19207363197879</v>
+        <v>15.5677186642715</v>
       </c>
       <c r="F18">
-        <v>21.06447460517333</v>
+        <v>24.90338117742376</v>
       </c>
       <c r="G18">
-        <v>1.945347195773952</v>
+        <v>3.613445786668447</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.33176533844004</v>
+        <v>19.19054461845412</v>
       </c>
       <c r="J18">
-        <v>17.9214930419297</v>
+        <v>10.44349330177771</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>124.4755606357743</v>
+        <v>69.01210163235015</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.75927624349498</v>
+        <v>20.39095266410312</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.294697356881246</v>
+        <v>3.889422246091887</v>
       </c>
       <c r="D19">
-        <v>9.351743656484111</v>
+        <v>8.535908747703614</v>
       </c>
       <c r="E19">
-        <v>26.99215287061113</v>
+        <v>15.5381220015301</v>
       </c>
       <c r="F19">
-        <v>20.77456718033054</v>
+        <v>24.94501300728628</v>
       </c>
       <c r="G19">
-        <v>1.947061941906171</v>
+        <v>3.61376322120675</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.16237916216415</v>
+        <v>19.20570684387251</v>
       </c>
       <c r="J19">
-        <v>17.7947738191965</v>
+        <v>10.43122193063592</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>123.730944082426</v>
+        <v>68.74833120014016</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.56987263840126</v>
+        <v>20.4111849138818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.417472785128904</v>
+        <v>3.92041958012723</v>
       </c>
       <c r="D20">
-        <v>9.664950994005896</v>
+        <v>8.542164137930888</v>
       </c>
       <c r="E20">
-        <v>27.90742027405055</v>
+        <v>15.67133331691549</v>
       </c>
       <c r="F20">
-        <v>22.10832173577592</v>
+        <v>24.75887886011224</v>
       </c>
       <c r="G20">
-        <v>1.939213858688099</v>
+        <v>3.612341192233449</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.93759965230322</v>
+        <v>19.13832878996127</v>
       </c>
       <c r="J20">
-        <v>18.37429210351282</v>
+        <v>10.48663949982221</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>127.1165868511146</v>
+        <v>69.92715522196875</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.43801446508245</v>
+        <v>20.32105668516236</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.847907205784201</v>
+        <v>4.02267752831554</v>
       </c>
       <c r="D21">
-        <v>10.87096603553559</v>
+        <v>8.566693046642303</v>
       </c>
       <c r="E21">
-        <v>31.39902809665211</v>
+        <v>16.1189203217763</v>
       </c>
       <c r="F21">
-        <v>27.29743891883696</v>
+        <v>24.15509349410073</v>
       </c>
       <c r="G21">
-        <v>1.909480044035315</v>
+        <v>3.607675658365677</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.86844745147718</v>
+        <v>18.92716743950694</v>
       </c>
       <c r="J21">
-        <v>20.57066169677397</v>
+        <v>10.67613001415433</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>139.4851204737075</v>
+        <v>73.7448722925551</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.74843826148869</v>
+        <v>20.03463321709054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.166495822464448</v>
+        <v>4.088017810930619</v>
       </c>
       <c r="D22">
-        <v>11.90545615606811</v>
+        <v>8.585361625159612</v>
       </c>
       <c r="E22">
-        <v>34.34982297786485</v>
+        <v>16.41100607053933</v>
       </c>
       <c r="F22">
-        <v>31.71418631988813</v>
+        <v>23.77705072953743</v>
       </c>
       <c r="G22">
-        <v>1.884923999433253</v>
+        <v>3.604709173894296</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.27228500791489</v>
+        <v>18.8008523557567</v>
       </c>
       <c r="J22">
-        <v>22.40932932320325</v>
+        <v>10.80228691884702</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>149.2894627303867</v>
+        <v>76.13354657872354</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.49503241019447</v>
+        <v>19.86004650040362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.990208878461956</v>
+        <v>4.05328604284807</v>
       </c>
       <c r="D23">
-        <v>11.31521390669682</v>
+        <v>8.575155244514002</v>
       </c>
       <c r="E23">
-        <v>32.67142585803636</v>
+        <v>16.25518223491304</v>
       </c>
       <c r="F23">
-        <v>29.20436566985676</v>
+        <v>23.97727166410868</v>
       </c>
       <c r="G23">
-        <v>1.898804584710643</v>
+        <v>3.606284938240113</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.9159211163161</v>
+        <v>18.86717662345346</v>
       </c>
       <c r="J23">
-        <v>21.36545512553002</v>
+        <v>10.73475192101542</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>143.7782207847484</v>
+        <v>74.86839148204287</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.94181986882235</v>
+        <v>19.95204748414318</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.410694136152887</v>
+        <v>3.918724238503985</v>
       </c>
       <c r="D24">
-        <v>9.647344827349881</v>
+        <v>8.541807463404027</v>
       </c>
       <c r="E24">
-        <v>27.85606077182006</v>
+        <v>15.66401673947914</v>
       </c>
       <c r="F24">
-        <v>22.03306397076082</v>
+        <v>24.76902031789256</v>
       </c>
       <c r="G24">
-        <v>1.939654023165227</v>
+        <v>3.61241885838519</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.89412585408711</v>
+        <v>19.14197248265242</v>
       </c>
       <c r="J24">
-        <v>18.34181489647394</v>
+        <v>10.48358347148836</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>126.9281848316162</v>
+        <v>69.86295786215518</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.3892422904301</v>
+        <v>20.32594537841885</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.827708382231021</v>
+        <v>3.767733903116943</v>
       </c>
       <c r="D25">
-        <v>8.255406853671278</v>
+        <v>8.517026837700117</v>
       </c>
       <c r="E25">
-        <v>23.76220735728028</v>
+        <v>15.02746408922204</v>
       </c>
       <c r="F25">
-        <v>16.24894993147472</v>
+        <v>25.69127441854412</v>
       </c>
       <c r="G25">
-        <v>1.974695102746815</v>
+        <v>3.619396683582488</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.43775014243868</v>
+        <v>19.48635703662525</v>
       </c>
       <c r="J25">
-        <v>15.73672910190474</v>
+        <v>10.22351386344871</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>111.3068361857946</v>
+        <v>64.00634909237995</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.54787713175397</v>
+        <v>20.78092158775054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.652199498345238</v>
+        <v>4.390623162103506</v>
       </c>
       <c r="D2">
-        <v>8.508238405086999</v>
+        <v>7.337167937537307</v>
       </c>
       <c r="E2">
-        <v>14.56323218744964</v>
+        <v>21.02520270336577</v>
       </c>
       <c r="F2">
-        <v>26.42636969429876</v>
+        <v>12.79084407326014</v>
       </c>
       <c r="G2">
-        <v>3.624852916187835</v>
+        <v>1.997768864330743</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.77888151176193</v>
+        <v>13.18719480449328</v>
       </c>
       <c r="J2">
-        <v>10.04232738920865</v>
+        <v>13.97606747706147</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>59.30097334940334</v>
+        <v>100.2011772215539</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.15787771143988</v>
+        <v>13.09619733860442</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.571563585323085</v>
+        <v>4.081308295567866</v>
       </c>
       <c r="D3">
-        <v>8.508093432694199</v>
+        <v>6.736767303242175</v>
       </c>
       <c r="E3">
-        <v>14.25333899226064</v>
+        <v>19.21804343112562</v>
       </c>
       <c r="F3">
-        <v>26.95840458236166</v>
+        <v>10.83441422699673</v>
       </c>
       <c r="G3">
-        <v>3.628753009019529</v>
+        <v>2.012684258770677</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.00033415973993</v>
+        <v>11.76117130145885</v>
       </c>
       <c r="J3">
-        <v>9.926439152986541</v>
+        <v>12.80423068073178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>55.86825641251506</v>
+        <v>92.58023687539597</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.43837450337134</v>
+        <v>11.57397616485949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.521042329243335</v>
+        <v>3.883413554688619</v>
       </c>
       <c r="D4">
-        <v>8.510840264752236</v>
+        <v>6.371043963236481</v>
       </c>
       <c r="E4">
-        <v>14.06607982705072</v>
+        <v>18.10915581367123</v>
       </c>
       <c r="F4">
-        <v>27.30145707343211</v>
+        <v>9.89288865670985</v>
       </c>
       <c r="G4">
-        <v>3.631248651908727</v>
+        <v>2.021670586950453</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.14740727707387</v>
+        <v>11.04770912963226</v>
       </c>
       <c r="J4">
-        <v>9.858841240909246</v>
+        <v>12.08105218105899</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>53.64128896996389</v>
+        <v>87.79069815687622</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.62259288461614</v>
+        <v>10.84818212794731</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.500223438909691</v>
+        <v>3.8006018153095</v>
       </c>
       <c r="D5">
-        <v>8.512668214724659</v>
+        <v>6.221939981928783</v>
       </c>
       <c r="E5">
-        <v>13.99063568513866</v>
+        <v>17.65503757865931</v>
       </c>
       <c r="F5">
-        <v>27.44532905050861</v>
+        <v>9.826065404099383</v>
       </c>
       <c r="G5">
-        <v>3.632291195082761</v>
+        <v>2.025309369587053</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.21008204590119</v>
+        <v>10.92761324030761</v>
       </c>
       <c r="J5">
-        <v>9.832211485452877</v>
+        <v>11.7838980605231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>52.7040214916205</v>
+        <v>85.80431389732709</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.7006283909836</v>
+        <v>10.74696082112</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.496753219651361</v>
+        <v>3.786716028485931</v>
       </c>
       <c r="D6">
-        <v>8.51301440687709</v>
+        <v>6.197158265325839</v>
       </c>
       <c r="E6">
-        <v>13.97816366302223</v>
+        <v>17.57943769744984</v>
       </c>
       <c r="F6">
-        <v>27.46946381843027</v>
+        <v>9.819117643884026</v>
       </c>
       <c r="G6">
-        <v>3.632465856214326</v>
+        <v>2.025912677849008</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.22065328266554</v>
+        <v>10.90892741680375</v>
       </c>
       <c r="J6">
-        <v>9.827845635821102</v>
+        <v>11.73436992398224</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>52.54659977517647</v>
+        <v>85.47221577745837</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.71376377730898</v>
+        <v>10.73180167707991</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.520762462646728</v>
+        <v>3.882305691081055</v>
       </c>
       <c r="D7">
-        <v>8.510862054107967</v>
+        <v>6.369034258739497</v>
       </c>
       <c r="E7">
-        <v>14.06505871444261</v>
+        <v>18.10304320548037</v>
       </c>
       <c r="F7">
-        <v>27.30338093522963</v>
+        <v>9.89170309599896</v>
       </c>
       <c r="G7">
-        <v>3.631262608357702</v>
+        <v>2.021719731992493</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.14824149625992</v>
+        <v>11.04600395327278</v>
       </c>
       <c r="J7">
-        <v>9.858478361758593</v>
+        <v>12.07705633873955</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>53.62876879022962</v>
+        <v>87.76405709957476</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.62363335835962</v>
+        <v>10.84670453018134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.624619376485157</v>
+        <v>4.285513935369445</v>
       </c>
       <c r="D8">
-        <v>8.507597172123518</v>
+        <v>7.128971561052651</v>
       </c>
       <c r="E8">
-        <v>14.45581863994214</v>
+        <v>20.40026063353381</v>
       </c>
       <c r="F8">
-        <v>26.60638783832777</v>
+        <v>12.07746432041376</v>
       </c>
       <c r="G8">
-        <v>3.626176809035309</v>
+        <v>2.002961119047836</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.85290391831137</v>
+        <v>12.6872607344081</v>
       </c>
       <c r="J8">
-        <v>10.00164448470932</v>
+        <v>13.57172132706764</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58.14224091554458</v>
+        <v>97.59161313239282</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.25207287878998</v>
+        <v>12.55914062719279</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.819320157650975</v>
+        <v>5.023716762965442</v>
       </c>
       <c r="D9">
-        <v>8.523893710805078</v>
+        <v>8.698976252253484</v>
       </c>
       <c r="E9">
-        <v>15.24144175180943</v>
+        <v>25.07388616725934</v>
       </c>
       <c r="F9">
-        <v>25.37174406917842</v>
+        <v>18.0446646497162</v>
       </c>
       <c r="G9">
-        <v>3.616997218142379</v>
+        <v>1.963501982288771</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.36414896633758</v>
+        <v>16.53951291967952</v>
       </c>
       <c r="J9">
-        <v>10.30958319456608</v>
+        <v>16.57497533693859</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66.04031886418925</v>
+        <v>116.4416182450808</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.62098485490606</v>
+        <v>16.76392534143934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.955735956219571</v>
+        <v>5.560751667631492</v>
       </c>
       <c r="D10">
-        <v>8.549970700274965</v>
+        <v>10.04631027827804</v>
       </c>
       <c r="E10">
-        <v>15.82453854203393</v>
+        <v>29.01722275409963</v>
       </c>
       <c r="F10">
-        <v>24.54861338187423</v>
+        <v>23.74439159936617</v>
       </c>
       <c r="G10">
-        <v>3.610725892585874</v>
+        <v>1.929715231398801</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.06349917552512</v>
+        <v>19.87537132530605</v>
       </c>
       <c r="J10">
-        <v>10.5509475264158</v>
+        <v>19.07486523171838</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.25750463883331</v>
+        <v>131.1417860005087</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.22027201267074</v>
+        <v>20.49251263282057</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.016136596388749</v>
+        <v>5.818608587589749</v>
       </c>
       <c r="D11">
-        <v>8.564950294937338</v>
+        <v>10.78266889321546</v>
       </c>
       <c r="E11">
-        <v>16.08993380379614</v>
+        <v>31.14522068161116</v>
       </c>
       <c r="F11">
-        <v>24.19326256003719</v>
+        <v>26.91729713727514</v>
       </c>
       <c r="G11">
-        <v>3.607973137072299</v>
+        <v>1.911622548383701</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.94017631186484</v>
+        <v>21.65784203528533</v>
       </c>
       <c r="J11">
-        <v>10.66371349979877</v>
+        <v>20.41176726579956</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73.50369623684723</v>
+        <v>138.6151555774839</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.05246646693502</v>
+        <v>22.50913701818572</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.038754326674719</v>
+        <v>5.921473965209282</v>
       </c>
       <c r="D12">
-        <v>8.571074943662774</v>
+        <v>11.09733512254093</v>
       </c>
       <c r="E12">
-        <v>16.19036431557736</v>
+        <v>32.0483482332681</v>
       </c>
       <c r="F12">
-        <v>24.06153268000726</v>
+        <v>28.27052721431686</v>
       </c>
       <c r="G12">
-        <v>3.606944934305383</v>
+        <v>1.904017790998781</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.89547674775369</v>
+        <v>22.40482039470715</v>
       </c>
       <c r="J12">
-        <v>10.70681465393855</v>
+        <v>20.97662535698782</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74.33601733690473</v>
+        <v>141.6901303036146</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.9910787082395</v>
+        <v>23.35886319295539</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.033894770322491</v>
+        <v>5.898985900697586</v>
       </c>
       <c r="D13">
-        <v>8.569735717482645</v>
+        <v>11.0274117571677</v>
       </c>
       <c r="E13">
-        <v>16.16873922230394</v>
+        <v>31.84799100066553</v>
       </c>
       <c r="F13">
-        <v>24.08977552240582</v>
+        <v>27.97021639095296</v>
       </c>
       <c r="G13">
-        <v>3.607165747419454</v>
+        <v>1.905700201734486</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.90501355125035</v>
+        <v>22.23970315324985</v>
       </c>
       <c r="J13">
-        <v>10.69751473479682</v>
+        <v>20.8514418899967</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>74.15757377843495</v>
+        <v>141.0129030521256</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.00420251941064</v>
+        <v>23.17080167602644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.018002565021641</v>
+        <v>5.826932599028389</v>
       </c>
       <c r="D14">
-        <v>8.565445088521551</v>
+        <v>10.80765067450769</v>
       </c>
       <c r="E14">
-        <v>16.09819815100667</v>
+        <v>31.21706024755597</v>
       </c>
       <c r="F14">
-        <v>24.18236773016232</v>
+        <v>27.02487640182132</v>
       </c>
       <c r="G14">
-        <v>3.607888262605317</v>
+        <v>1.911015719375272</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.93645837453534</v>
+        <v>21.71750446913379</v>
       </c>
       <c r="J14">
-        <v>10.66725161596109</v>
+        <v>20.45675397343853</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>73.57253761336699</v>
+        <v>138.8618578452636</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.04737239817896</v>
+        <v>22.57690687297291</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.00823449441869</v>
+        <v>5.783643185237951</v>
       </c>
       <c r="D15">
-        <v>8.562875959672908</v>
+        <v>10.6786172194488</v>
       </c>
       <c r="E15">
-        <v>16.05497819874421</v>
+        <v>30.84574648567514</v>
       </c>
       <c r="F15">
-        <v>24.23945495685137</v>
+        <v>26.46903448972359</v>
       </c>
       <c r="G15">
-        <v>3.608332668359762</v>
+        <v>1.914155459109226</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.95598173924225</v>
+        <v>21.40871229446683</v>
       </c>
       <c r="J15">
-        <v>10.64876574412804</v>
+        <v>20.22413088867319</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>73.21180868914328</v>
+        <v>137.5828153579396</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.07409831876092</v>
+        <v>22.22634027577829</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.951753865601054</v>
+        <v>5.544376846640086</v>
       </c>
       <c r="D16">
-        <v>8.549054814564442</v>
+        <v>10.00180073469097</v>
       </c>
       <c r="E16">
-        <v>15.80718940281959</v>
+        <v>28.88796021153239</v>
       </c>
       <c r="F16">
-        <v>24.57222791877573</v>
+        <v>23.55296674183477</v>
       </c>
       <c r="G16">
-        <v>3.610907789960211</v>
+        <v>1.93082001612607</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.07183480592668</v>
+        <v>19.76634763787134</v>
       </c>
       <c r="J16">
-        <v>10.54363535763028</v>
+        <v>18.99338577456789</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>71.10815349537391</v>
+        <v>130.6774684920968</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.23153614015363</v>
+        <v>20.36968333582655</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.916668526471727</v>
+        <v>5.402485335179525</v>
       </c>
       <c r="D17">
-        <v>8.541377214873126</v>
+        <v>9.626074609815163</v>
       </c>
       <c r="E17">
-        <v>15.6551496475113</v>
+        <v>27.79399837219573</v>
       </c>
       <c r="F17">
-        <v>24.7813234539644</v>
+        <v>21.94218403920104</v>
       </c>
       <c r="G17">
-        <v>3.612513049900354</v>
+        <v>1.940185963251701</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.14639708614338</v>
+        <v>18.84158631586214</v>
       </c>
       <c r="J17">
-        <v>10.47988169717248</v>
+        <v>18.3025630643151</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.78507224258263</v>
+        <v>126.7002706307491</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.33187951157509</v>
+        <v>19.33031312554379</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.896333437795435</v>
+        <v>5.321872817158687</v>
       </c>
       <c r="D18">
-        <v>8.537254425784264</v>
+        <v>9.420058666219928</v>
       </c>
       <c r="E18">
-        <v>15.5677186642715</v>
+        <v>27.19207363197873</v>
       </c>
       <c r="F18">
-        <v>24.90338117742376</v>
+        <v>21.06447460517331</v>
       </c>
       <c r="G18">
-        <v>3.613445786668447</v>
+        <v>1.945347195773816</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.19054461845412</v>
+        <v>18.33176533844006</v>
       </c>
       <c r="J18">
-        <v>10.44349330177771</v>
+        <v>17.92149304192968</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>69.01210163235015</v>
+        <v>124.475560635774</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.39095266410312</v>
+        <v>18.75927624349498</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.889422246091887</v>
+        <v>5.294697356881254</v>
       </c>
       <c r="D19">
-        <v>8.535908747703614</v>
+        <v>9.351743656484048</v>
       </c>
       <c r="E19">
-        <v>15.5381220015301</v>
+        <v>26.99215287061115</v>
       </c>
       <c r="F19">
-        <v>24.94501300728628</v>
+        <v>20.77456718033033</v>
       </c>
       <c r="G19">
-        <v>3.61376322120675</v>
+        <v>1.947061941906171</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.20570684387251</v>
+        <v>18.16237916216408</v>
       </c>
       <c r="J19">
-        <v>10.43122193063592</v>
+        <v>17.79477381919653</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>68.74833120014016</v>
+        <v>123.730944082426</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.4111849138818</v>
+        <v>18.56987263840116</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.92041958012723</v>
+        <v>5.417472785128857</v>
       </c>
       <c r="D20">
-        <v>8.542164137930888</v>
+        <v>9.66495099400588</v>
       </c>
       <c r="E20">
-        <v>15.67133331691549</v>
+        <v>27.90742027405047</v>
       </c>
       <c r="F20">
-        <v>24.75887886011224</v>
+        <v>22.10832173577601</v>
       </c>
       <c r="G20">
-        <v>3.612341192233449</v>
+        <v>1.939213858687965</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.13832878996127</v>
+        <v>18.93759965230329</v>
       </c>
       <c r="J20">
-        <v>10.48663949982221</v>
+        <v>18.37429210351281</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>69.92715522196875</v>
+        <v>127.1165868511145</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.32105668516236</v>
+        <v>19.43801446508252</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.02267752831554</v>
+        <v>5.847907205784201</v>
       </c>
       <c r="D21">
-        <v>8.566693046642303</v>
+        <v>10.87096603553555</v>
       </c>
       <c r="E21">
-        <v>16.1189203217763</v>
+        <v>31.3990280966521</v>
       </c>
       <c r="F21">
-        <v>24.15509349410073</v>
+        <v>27.29743891883689</v>
       </c>
       <c r="G21">
-        <v>3.607675658365677</v>
+        <v>1.90948004403545</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.92716743950694</v>
+        <v>21.86844745147713</v>
       </c>
       <c r="J21">
-        <v>10.67613001415433</v>
+        <v>20.57066169677394</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73.7448722925551</v>
+        <v>139.4851204737074</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.03463321709054</v>
+        <v>22.74843826148862</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.088017810930619</v>
+        <v>6.166495822464562</v>
       </c>
       <c r="D22">
-        <v>8.585361625159612</v>
+        <v>11.90545615606819</v>
       </c>
       <c r="E22">
-        <v>16.41100607053933</v>
+        <v>34.349822977865</v>
       </c>
       <c r="F22">
-        <v>23.77705072953743</v>
+        <v>31.71418631988829</v>
       </c>
       <c r="G22">
-        <v>3.604709173894296</v>
+        <v>1.884923999433122</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.8008523557567</v>
+        <v>24.2722850079149</v>
       </c>
       <c r="J22">
-        <v>10.80228691884702</v>
+        <v>22.40932932320329</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>76.13354657872354</v>
+        <v>149.2894627303868</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.86004650040362</v>
+        <v>25.49503241019454</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.05328604284807</v>
+        <v>5.990208878462025</v>
       </c>
       <c r="D23">
-        <v>8.575155244514002</v>
+        <v>11.31521390669667</v>
       </c>
       <c r="E23">
-        <v>16.25518223491304</v>
+        <v>32.67142585803626</v>
       </c>
       <c r="F23">
-        <v>23.97727166410868</v>
+        <v>29.20436566985689</v>
       </c>
       <c r="G23">
-        <v>3.606284938240113</v>
+        <v>1.898804584710779</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.86717662345346</v>
+        <v>22.91592111631619</v>
       </c>
       <c r="J23">
-        <v>10.73475192101542</v>
+        <v>21.36545512552996</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.86839148204287</v>
+        <v>143.7782207847482</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.95204748414318</v>
+        <v>23.94181986882249</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.918724238503985</v>
+        <v>5.410694136152919</v>
       </c>
       <c r="D24">
-        <v>8.541807463404027</v>
+        <v>9.647344827349917</v>
       </c>
       <c r="E24">
-        <v>15.66401673947914</v>
+        <v>27.85606077182013</v>
       </c>
       <c r="F24">
-        <v>24.76902031789256</v>
+        <v>22.03306397076107</v>
       </c>
       <c r="G24">
-        <v>3.61241885838519</v>
+        <v>1.939654023164959</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.14197248265242</v>
+        <v>18.89412585408725</v>
       </c>
       <c r="J24">
-        <v>10.48358347148836</v>
+        <v>18.34181489647396</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.86295786215518</v>
+        <v>126.9281848316166</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.32594537841885</v>
+        <v>19.38924229043023</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.767733903116943</v>
+        <v>4.827708382230979</v>
       </c>
       <c r="D25">
-        <v>8.517026837700117</v>
+        <v>8.255406853671262</v>
       </c>
       <c r="E25">
-        <v>15.02746408922204</v>
+        <v>23.76220735728025</v>
       </c>
       <c r="F25">
-        <v>25.69127441854412</v>
+        <v>16.24894993147464</v>
       </c>
       <c r="G25">
-        <v>3.619396683582488</v>
+        <v>1.974695102746549</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.48635703662525</v>
+        <v>15.43775014243867</v>
       </c>
       <c r="J25">
-        <v>10.22351386344871</v>
+        <v>15.73672910190476</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>64.00634909237995</v>
+        <v>111.3068361857945</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.78092158775054</v>
+        <v>15.5478771317539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,995 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>4.390623162103506</v>
+        <v>5.544382448789207</v>
       </c>
       <c r="D2">
-        <v>7.337167937537307</v>
+        <v>2.627640909833232</v>
       </c>
       <c r="E2">
-        <v>21.02520270336577</v>
+        <v>30.57218493074219</v>
       </c>
       <c r="F2">
-        <v>12.79084407326014</v>
+        <v>26.37721881889866</v>
       </c>
       <c r="G2">
-        <v>1.997768864330743</v>
+        <v>38.51399770891909</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.939028256468472</v>
       </c>
       <c r="I2">
-        <v>13.18719480449328</v>
+        <v>5.314293923307466</v>
       </c>
       <c r="J2">
-        <v>13.97606747706147</v>
+        <v>10.93316990959801</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.04216673137244</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>100.2011772215539</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>13.09619733860442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2">
+        <v>20.66292477212803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>4.081308295567866</v>
+        <v>5.375522363609775</v>
       </c>
       <c r="D3">
-        <v>6.736767303242175</v>
+        <v>2.569302684655349</v>
       </c>
       <c r="E3">
-        <v>19.21804343112562</v>
+        <v>28.69356076518102</v>
       </c>
       <c r="F3">
-        <v>10.83441422699673</v>
+        <v>24.85463809148046</v>
       </c>
       <c r="G3">
-        <v>2.012684258770677</v>
+        <v>36.08229525829495</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.677097306226615</v>
       </c>
       <c r="I3">
-        <v>11.76117130145885</v>
+        <v>5.09697667330478</v>
       </c>
       <c r="J3">
-        <v>12.80423068073178</v>
+        <v>10.49345327942719</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.03458603149361</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>92.58023687539597</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>11.57397616485949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3">
+        <v>19.57288254848523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>3.883413554688619</v>
+        <v>5.266190348110351</v>
       </c>
       <c r="D4">
-        <v>6.371043963236481</v>
+        <v>2.531780349594387</v>
       </c>
       <c r="E4">
-        <v>18.10915581367123</v>
+        <v>27.47847062033168</v>
       </c>
       <c r="F4">
-        <v>9.89288865670985</v>
+        <v>23.87611272873085</v>
       </c>
       <c r="G4">
-        <v>2.021670586950453</v>
+        <v>34.50789663690174</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.510680841678379</v>
       </c>
       <c r="I4">
-        <v>11.04770912963226</v>
+        <v>4.958933321591944</v>
       </c>
       <c r="J4">
-        <v>12.08105218105899</v>
+        <v>10.21570616646562</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.38860385495847</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>87.79069815687622</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>10.84818212794731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4">
+        <v>18.87500756220334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>3.8006018153095</v>
+        <v>5.21362309949138</v>
       </c>
       <c r="D5">
-        <v>6.221939981928783</v>
+        <v>2.516471119550232</v>
       </c>
       <c r="E5">
-        <v>17.65503757865931</v>
+        <v>26.96736285223825</v>
       </c>
       <c r="F5">
-        <v>9.826065404099383</v>
+        <v>23.45706194980906</v>
       </c>
       <c r="G5">
-        <v>2.025309369587053</v>
+        <v>33.82873326937455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.441178412415705</v>
       </c>
       <c r="I5">
-        <v>10.92761324030761</v>
+        <v>4.900945436120977</v>
       </c>
       <c r="J5">
-        <v>11.7838980605231</v>
+        <v>10.09716102203776</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.10714859802571</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>85.80431389732709</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>10.74696082112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5">
+        <v>18.5754661794785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>3.786716028485931</v>
+        <v>5.1967900089021</v>
       </c>
       <c r="D6">
-        <v>6.197158265325839</v>
+        <v>2.514408982358673</v>
       </c>
       <c r="E6">
-        <v>17.57943769744984</v>
+        <v>26.88095200143684</v>
       </c>
       <c r="F6">
-        <v>9.819117643884026</v>
+        <v>23.37510383886432</v>
       </c>
       <c r="G6">
-        <v>2.025912677849008</v>
+        <v>33.69355655962855</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.429240386193193</v>
       </c>
       <c r="I6">
-        <v>10.90892741680375</v>
+        <v>4.89068576834684</v>
       </c>
       <c r="J6">
-        <v>11.73436992398224</v>
+        <v>10.07303272946021</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.04584192859458</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>85.47221577745837</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>10.73180167707991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>18.5152634855335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>3.882305691081055</v>
+        <v>5.243706504296995</v>
       </c>
       <c r="D7">
-        <v>6.369034258739497</v>
+        <v>2.53295781692509</v>
       </c>
       <c r="E7">
-        <v>18.10304320548037</v>
+        <v>27.47000160651615</v>
       </c>
       <c r="F7">
-        <v>9.89170309599896</v>
+        <v>23.83908583891242</v>
       </c>
       <c r="G7">
-        <v>2.021719731992493</v>
+        <v>34.44225785265976</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.508910801107763</v>
       </c>
       <c r="I7">
-        <v>11.04600395327278</v>
+        <v>4.956488368024567</v>
       </c>
       <c r="J7">
-        <v>12.07705633873955</v>
+        <v>10.20241713293359</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.34676058203879</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>87.76405709957476</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>10.84670453018134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7">
+        <v>18.84402980857486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>4.285513935369445</v>
+        <v>5.459403046328388</v>
       </c>
       <c r="D8">
-        <v>7.128971561052651</v>
+        <v>2.609719852009651</v>
       </c>
       <c r="E8">
-        <v>20.40026063353381</v>
+        <v>29.93518796547425</v>
       </c>
       <c r="F8">
-        <v>12.07746432041376</v>
+        <v>25.82262001458363</v>
       </c>
       <c r="G8">
-        <v>2.002961119047836</v>
+        <v>37.62314558417049</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.848782071509953</v>
       </c>
       <c r="I8">
-        <v>12.6872607344081</v>
+        <v>5.238056760464793</v>
       </c>
       <c r="J8">
-        <v>13.57172132706764</v>
+        <v>10.76845562908982</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.65305390474084</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>97.59161313239282</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>12.55914062719279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8">
+        <v>20.25961533408286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>5.023716762965442</v>
+        <v>5.874679194919674</v>
       </c>
       <c r="D9">
-        <v>8.698976252253484</v>
+        <v>2.744286939494777</v>
       </c>
       <c r="E9">
-        <v>25.07388616725934</v>
+        <v>34.28296431730286</v>
       </c>
       <c r="F9">
-        <v>18.0446646497162</v>
+        <v>29.4078325669969</v>
       </c>
       <c r="G9">
-        <v>1.963501982288771</v>
+        <v>43.30138041958836</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.473626934658408</v>
       </c>
       <c r="I9">
-        <v>16.53951291967952</v>
+        <v>5.757934050372692</v>
       </c>
       <c r="J9">
-        <v>16.57497533693859</v>
+        <v>11.83142098881506</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.05185931270261</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>116.4416182450808</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>16.76392534143934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9">
+        <v>22.84423503342395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>5.560751667631492</v>
+        <v>6.144758162942903</v>
       </c>
       <c r="D10">
-        <v>10.04631027827804</v>
+        <v>2.845963465430526</v>
       </c>
       <c r="E10">
-        <v>29.01722275409963</v>
+        <v>36.30559892869252</v>
       </c>
       <c r="F10">
-        <v>23.74439159936617</v>
+        <v>31.67365319165618</v>
       </c>
       <c r="G10">
-        <v>1.929715231398801</v>
+        <v>46.82022708828692</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.868234678829879</v>
       </c>
       <c r="I10">
-        <v>19.87537132530605</v>
+        <v>6.109111404046883</v>
       </c>
       <c r="J10">
-        <v>19.07486523171838</v>
+        <v>12.5102263269419</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.55701512621384</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>131.1417860005087</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>20.49251263282057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10">
+        <v>24.46670837857879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>5.818608587589749</v>
+        <v>6.260886354734942</v>
       </c>
       <c r="D11">
-        <v>10.78266889321546</v>
+        <v>2.993593839954566</v>
       </c>
       <c r="E11">
-        <v>31.14522068161116</v>
+        <v>29.76747028163026</v>
       </c>
       <c r="F11">
-        <v>26.91729713727514</v>
+        <v>31.49881126212864</v>
       </c>
       <c r="G11">
-        <v>1.911622548383701</v>
+        <v>46.29048801346333</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.147287100600047</v>
       </c>
       <c r="I11">
-        <v>21.65784203528533</v>
+        <v>6.180487893461019</v>
       </c>
       <c r="J11">
-        <v>20.41176726579956</v>
+        <v>12.35364840010455</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.34397792069076</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>138.6151555774839</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>22.50913701818572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11">
+        <v>24.16563656384132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>5.921473965209282</v>
+        <v>6.352961466553027</v>
       </c>
       <c r="D12">
-        <v>11.09733512254093</v>
+        <v>3.107807807485612</v>
       </c>
       <c r="E12">
-        <v>32.0483482332681</v>
+        <v>23.92986961181065</v>
       </c>
       <c r="F12">
-        <v>28.27052721431686</v>
+        <v>30.91572240384425</v>
       </c>
       <c r="G12">
-        <v>1.904017790998781</v>
+        <v>45.18066388679264</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.840777383672609</v>
       </c>
       <c r="I12">
-        <v>22.40482039470715</v>
+        <v>6.177293722740576</v>
       </c>
       <c r="J12">
-        <v>20.97662535698782</v>
+        <v>12.08946837886477</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.8943442751015</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>141.6901303036146</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>23.35886319295539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12">
+        <v>23.6012697537831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>5.898985900697586</v>
+        <v>6.403857961030875</v>
       </c>
       <c r="D13">
-        <v>11.0274117571677</v>
+        <v>3.203891541746404</v>
       </c>
       <c r="E13">
-        <v>31.84799100066553</v>
+        <v>18.22375363482856</v>
       </c>
       <c r="F13">
-        <v>27.97021639095296</v>
+        <v>29.92688475936876</v>
       </c>
       <c r="G13">
-        <v>1.905700201734486</v>
+        <v>43.45475828330419</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.758634766450338</v>
       </c>
       <c r="I13">
-        <v>22.23970315324985</v>
+        <v>6.115524723929163</v>
       </c>
       <c r="J13">
-        <v>20.8514418899967</v>
+        <v>11.70491257302745</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.17552511575857</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>141.0129030521256</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>23.17080167602644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13">
+        <v>22.75041195191756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>5.826932599028389</v>
+        <v>6.416709301353896</v>
       </c>
       <c r="D14">
-        <v>10.80765067450769</v>
+        <v>3.264648132276845</v>
       </c>
       <c r="E14">
-        <v>31.21706024755597</v>
+        <v>14.42239140714734</v>
       </c>
       <c r="F14">
-        <v>27.02487640182132</v>
+        <v>29.03044257833469</v>
       </c>
       <c r="G14">
-        <v>1.911015719375272</v>
+        <v>41.93064941542927</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.497835435026916</v>
       </c>
       <c r="I14">
-        <v>21.71750446913379</v>
+        <v>6.046666296854982</v>
       </c>
       <c r="J14">
-        <v>20.45675397343853</v>
+        <v>11.37426986150423</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.53259417069313</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>138.8618578452636</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>22.57690687297291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <v>22.00778058720692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>5.783643185237951</v>
+        <v>6.399484312172598</v>
       </c>
       <c r="D15">
-        <v>10.6786172194488</v>
+        <v>3.275210680300704</v>
       </c>
       <c r="E15">
-        <v>30.84574648567514</v>
+        <v>13.53262366678001</v>
       </c>
       <c r="F15">
-        <v>26.46903448972359</v>
+        <v>28.71270196031822</v>
       </c>
       <c r="G15">
-        <v>1.914155459109226</v>
+        <v>41.40422496480836</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.668285871979369</v>
       </c>
       <c r="I15">
-        <v>21.40871229446683</v>
+        <v>6.016144218052859</v>
       </c>
       <c r="J15">
-        <v>20.22413088867319</v>
+        <v>11.26410296141187</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.3048861142624</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>137.5828153579396</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>22.22634027577829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15">
+        <v>21.75539921311437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>5.544376846640086</v>
+        <v>6.266695164796945</v>
       </c>
       <c r="D16">
-        <v>10.00180073469097</v>
+        <v>3.214277982150847</v>
       </c>
       <c r="E16">
-        <v>28.88796021153239</v>
+        <v>13.40506722073748</v>
       </c>
       <c r="F16">
-        <v>23.55296674183477</v>
+        <v>27.8868597769625</v>
       </c>
       <c r="G16">
-        <v>1.93082001612607</v>
+        <v>40.13792096153503</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.387905759373538</v>
       </c>
       <c r="I16">
-        <v>19.76634763787134</v>
+        <v>5.881102579197925</v>
       </c>
       <c r="J16">
-        <v>18.99338577456789</v>
+        <v>11.03140406897016</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.75926819686062</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>130.6774684920968</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>20.36968333582655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <v>21.18237574423989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>5.402485335179525</v>
+        <v>6.154013284784944</v>
       </c>
       <c r="D17">
-        <v>9.626074609815163</v>
+        <v>3.133395014371534</v>
       </c>
       <c r="E17">
-        <v>27.79399837219573</v>
+        <v>15.31729256177652</v>
       </c>
       <c r="F17">
-        <v>21.94218403920104</v>
+        <v>27.74272058675989</v>
       </c>
       <c r="G17">
-        <v>1.940185963251701</v>
+        <v>40.00103615799959</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.730118259060903</v>
       </c>
       <c r="I17">
-        <v>18.84158631586214</v>
+        <v>5.812869315246988</v>
       </c>
       <c r="J17">
-        <v>18.3025630643151</v>
+        <v>11.03332924303244</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.6906603083488</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>126.7002706307491</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>19.33031312554379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17">
+        <v>21.14927226329388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>5.321872817158687</v>
+        <v>6.074144767610364</v>
       </c>
       <c r="D18">
-        <v>9.420058666219928</v>
+        <v>3.028934949199703</v>
       </c>
       <c r="E18">
-        <v>27.19207363197873</v>
+        <v>19.61830749367467</v>
       </c>
       <c r="F18">
-        <v>21.06447460517331</v>
+        <v>28.20005467788955</v>
       </c>
       <c r="G18">
-        <v>1.945347195773816</v>
+        <v>40.87890169574067</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.776398045558363</v>
       </c>
       <c r="I18">
-        <v>18.33176533844006</v>
+        <v>5.799179981413974</v>
       </c>
       <c r="J18">
-        <v>17.92149304192968</v>
+        <v>11.24555022042394</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.0563722235126</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>124.475560635774</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>18.75927624349498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18">
+        <v>21.60048978113972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>5.294697356881254</v>
+        <v>5.998666364403629</v>
       </c>
       <c r="D19">
-        <v>9.351743656484048</v>
+        <v>2.926491924534958</v>
       </c>
       <c r="E19">
-        <v>26.99215287061115</v>
+        <v>25.70806211114188</v>
       </c>
       <c r="F19">
-        <v>20.77456718033033</v>
+        <v>29.05005443915597</v>
       </c>
       <c r="G19">
-        <v>1.947061941906171</v>
+        <v>42.40908171760586</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.926141515482884</v>
       </c>
       <c r="I19">
-        <v>18.16237916216408</v>
+        <v>5.836244901873636</v>
       </c>
       <c r="J19">
-        <v>17.79477381919653</v>
+        <v>11.58736638860863</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.67755275842077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>123.730944082426</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>18.56987263840116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19">
+        <v>22.35645020872727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>5.417472785128857</v>
+        <v>6.016296251605575</v>
       </c>
       <c r="D20">
-        <v>9.66495099400588</v>
+        <v>2.824763026585373</v>
       </c>
       <c r="E20">
-        <v>27.90742027405047</v>
+        <v>35.74244576009614</v>
       </c>
       <c r="F20">
-        <v>22.10832173577601</v>
+        <v>31.00921163416997</v>
       </c>
       <c r="G20">
-        <v>1.939213858687965</v>
+        <v>45.77302081398868</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.761215080232748</v>
       </c>
       <c r="I20">
-        <v>18.93759965230329</v>
+        <v>6.014969541172325</v>
       </c>
       <c r="J20">
-        <v>18.37429210351281</v>
+        <v>12.30177188276152</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.06990740569767</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>127.1165868511145</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>19.43801446508252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <v>23.97717716220097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>5.847907205784201</v>
+        <v>6.226654174346634</v>
       </c>
       <c r="D21">
-        <v>10.87096603553555</v>
+        <v>2.883273001877384</v>
       </c>
       <c r="E21">
-        <v>31.3990280966521</v>
+        <v>38.56558044039057</v>
       </c>
       <c r="F21">
-        <v>27.29743891883689</v>
+        <v>32.89959890206887</v>
       </c>
       <c r="G21">
-        <v>1.90948004403545</v>
+        <v>48.7455948076491</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.119699629410499</v>
       </c>
       <c r="I21">
-        <v>21.86844745147713</v>
+        <v>6.295382266842712</v>
       </c>
       <c r="J21">
-        <v>20.57066169677394</v>
+        <v>12.89367692208543</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.35045101500373</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>139.4851204737074</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>22.74843826148862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21">
+        <v>25.36669099145081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>6.166495822464562</v>
+        <v>6.383283164250571</v>
       </c>
       <c r="D22">
-        <v>11.90545615606819</v>
+        <v>2.923529842067139</v>
       </c>
       <c r="E22">
-        <v>34.349822977865</v>
+        <v>39.90710831224121</v>
       </c>
       <c r="F22">
-        <v>31.71418631988829</v>
+        <v>34.05534858066547</v>
       </c>
       <c r="G22">
-        <v>1.884923999433122</v>
+        <v>50.54854914463549</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.330315614185655</v>
       </c>
       <c r="I22">
-        <v>24.2722850079149</v>
+        <v>6.471357866331607</v>
       </c>
       <c r="J22">
-        <v>22.40932932320329</v>
+        <v>13.25683925630087</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.14733816040684</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>149.2894627303868</v>
-      </c>
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>25.49503241019454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22">
+        <v>26.21340281523816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>5.990208878462025</v>
+        <v>6.321652125985636</v>
       </c>
       <c r="D23">
-        <v>11.31521390669667</v>
+        <v>2.900516835377204</v>
       </c>
       <c r="E23">
-        <v>32.67142585803626</v>
+        <v>39.19753365856535</v>
       </c>
       <c r="F23">
-        <v>29.20436566985689</v>
+        <v>33.47015579538236</v>
       </c>
       <c r="G23">
-        <v>1.898804584710779</v>
+        <v>49.64175596368938</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.219133185041562</v>
       </c>
       <c r="I23">
-        <v>22.91592111631619</v>
+        <v>6.378604738761077</v>
       </c>
       <c r="J23">
-        <v>21.36545512552996</v>
+        <v>13.07510737592906</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.75943011234622</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>143.7782207847482</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>23.94181986882249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23">
+        <v>25.78854072810101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>5.410694136152919</v>
+        <v>6.045565281280594</v>
       </c>
       <c r="D24">
-        <v>9.647344827349917</v>
+        <v>2.81296550966439</v>
       </c>
       <c r="E24">
-        <v>27.85606077182013</v>
+        <v>36.40149327567722</v>
       </c>
       <c r="F24">
-        <v>22.03306397076107</v>
+        <v>31.12781112707303</v>
       </c>
       <c r="G24">
-        <v>1.939654023164959</v>
+        <v>45.98945129726162</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.789030959358785</v>
       </c>
       <c r="I24">
-        <v>18.89412585408725</v>
+        <v>6.019633310498176</v>
       </c>
       <c r="J24">
-        <v>18.34181489647396</v>
+        <v>12.35066005098698</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.18126973720302</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>126.9281848316166</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>19.38924229043023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24">
+        <v>24.08444086801853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>4.827708382230979</v>
+        <v>5.731160976235508</v>
       </c>
       <c r="D25">
-        <v>8.255406853671262</v>
+        <v>2.711863836442705</v>
       </c>
       <c r="E25">
-        <v>23.76220735728025</v>
+        <v>33.15644430283891</v>
       </c>
       <c r="F25">
-        <v>16.24894993147464</v>
+        <v>28.42857060996922</v>
       </c>
       <c r="G25">
-        <v>1.974695102746549</v>
+        <v>41.74940161539926</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.307597573359912</v>
       </c>
       <c r="I25">
-        <v>15.43775014243867</v>
+        <v>5.618687000784124</v>
       </c>
       <c r="J25">
-        <v>15.73672910190476</v>
+        <v>11.53269335845707</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.36816807918044</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>111.3068361857945</v>
-      </c>
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>15.5478771317539</v>
+      <c r="Q25">
+        <v>22.1291211239405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,989 +421,1139 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.544382448789207</v>
+        <v>5.168714830990504</v>
       </c>
       <c r="D2">
-        <v>2.627640909833232</v>
+        <v>2.832577886512372</v>
       </c>
       <c r="E2">
-        <v>30.57218493074219</v>
+        <v>30.34180420412474</v>
       </c>
       <c r="F2">
-        <v>26.37721881889866</v>
+        <v>24.93537353215637</v>
       </c>
       <c r="G2">
-        <v>38.51399770891909</v>
+        <v>35.57187818884294</v>
       </c>
       <c r="H2">
-        <v>3.939028256468472</v>
+        <v>3.815906214631942</v>
       </c>
       <c r="I2">
-        <v>5.314293923307466</v>
+        <v>5.012416653883204</v>
       </c>
       <c r="J2">
-        <v>10.93316990959801</v>
+        <v>11.09216913774544</v>
       </c>
       <c r="K2">
-        <v>20.04216673137244</v>
+        <v>18.35171911831709</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.22708313114277</v>
+      </c>
+      <c r="M2">
+        <v>11.91912008692679</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>20.66292477212803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>19.46622819124566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.375522363609775</v>
+        <v>5.019956734941259</v>
       </c>
       <c r="D3">
-        <v>2.569302684655349</v>
+        <v>2.749616652144026</v>
       </c>
       <c r="E3">
-        <v>28.69356076518102</v>
+        <v>28.48474368283375</v>
       </c>
       <c r="F3">
-        <v>24.85463809148046</v>
+        <v>23.58498914302578</v>
       </c>
       <c r="G3">
-        <v>36.08229525829495</v>
+        <v>33.38762935697998</v>
       </c>
       <c r="H3">
-        <v>3.677097306226615</v>
+        <v>3.567553254353121</v>
       </c>
       <c r="I3">
-        <v>5.09697667330478</v>
+        <v>4.829535685370952</v>
       </c>
       <c r="J3">
-        <v>10.49345327942719</v>
+        <v>10.72513252484486</v>
       </c>
       <c r="K3">
-        <v>19.03458603149361</v>
+        <v>17.55193906632089</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.94713423516434</v>
+      </c>
+      <c r="M3">
+        <v>10.905780942352</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>19.57288254848523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>18.52666244721503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.266190348110351</v>
+        <v>4.926731024044217</v>
       </c>
       <c r="D4">
-        <v>2.531780349594387</v>
+        <v>2.696751500292818</v>
       </c>
       <c r="E4">
-        <v>27.47847062033168</v>
+        <v>27.28308158670497</v>
       </c>
       <c r="F4">
-        <v>23.87611272873085</v>
+        <v>22.71741723971795</v>
       </c>
       <c r="G4">
-        <v>34.50789663690174</v>
+        <v>31.97335122434477</v>
       </c>
       <c r="H4">
-        <v>3.510680841678379</v>
+        <v>3.409614313723295</v>
       </c>
       <c r="I4">
-        <v>4.958933321591944</v>
+        <v>4.713303921177766</v>
       </c>
       <c r="J4">
-        <v>10.21570616646562</v>
+        <v>10.4924254464805</v>
       </c>
       <c r="K4">
-        <v>18.38860385495847</v>
+        <v>17.0392713095985</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.76287406967864</v>
+      </c>
+      <c r="M4">
+        <v>10.25719549246724</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>18.87500756220334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.92541799321137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.21362309949138</v>
+        <v>4.887469121216427</v>
       </c>
       <c r="D5">
-        <v>2.516471119550232</v>
+        <v>2.67536220334247</v>
       </c>
       <c r="E5">
-        <v>26.96736285223825</v>
+        <v>26.77757276268341</v>
       </c>
       <c r="F5">
-        <v>23.45706194980906</v>
+        <v>22.34522272460731</v>
       </c>
       <c r="G5">
-        <v>33.82873326937455</v>
+        <v>31.36188657489455</v>
       </c>
       <c r="H5">
-        <v>3.441178412415705</v>
+        <v>3.343634166071782</v>
       </c>
       <c r="I5">
-        <v>4.900945436120977</v>
+        <v>4.664626211671621</v>
       </c>
       <c r="J5">
-        <v>10.09716102203776</v>
+        <v>10.39259117273525</v>
       </c>
       <c r="K5">
-        <v>18.10714859802571</v>
+        <v>16.81416115893813</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.67669119357858</v>
+      </c>
+      <c r="M5">
+        <v>9.977975475997949</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>18.5754661794785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.66663622690662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.1967900089021</v>
+        <v>4.880063784960455</v>
       </c>
       <c r="D6">
-        <v>2.514408982358673</v>
+        <v>2.672561538194927</v>
       </c>
       <c r="E6">
-        <v>26.88095200143684</v>
+        <v>26.69217591634751</v>
       </c>
       <c r="F6">
-        <v>23.37510383886432</v>
+        <v>22.27154440562359</v>
       </c>
       <c r="G6">
-        <v>33.69355655962855</v>
+        <v>31.23858713716335</v>
       </c>
       <c r="H6">
-        <v>3.429240386193193</v>
+        <v>3.332318494522748</v>
       </c>
       <c r="I6">
-        <v>4.89068576834684</v>
+        <v>4.656257656567271</v>
       </c>
       <c r="J6">
-        <v>10.07303272946021</v>
+        <v>10.37192628195665</v>
       </c>
       <c r="K6">
-        <v>18.04584192859458</v>
+        <v>16.76307164343094</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.65244891692448</v>
+      </c>
+      <c r="M6">
+        <v>9.920448125477026</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>18.5152634855335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.61368875186735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.243706504296995</v>
+        <v>4.923767483505631</v>
       </c>
       <c r="D7">
-        <v>2.53295781692509</v>
+        <v>2.699837929398745</v>
       </c>
       <c r="E7">
-        <v>27.47000160651615</v>
+        <v>27.27413652195998</v>
       </c>
       <c r="F7">
-        <v>23.83908583891242</v>
+        <v>22.66381214856515</v>
       </c>
       <c r="G7">
-        <v>34.44225785265976</v>
+        <v>32.0195912539516</v>
       </c>
       <c r="H7">
-        <v>3.508910801107763</v>
+        <v>3.407584992649051</v>
       </c>
       <c r="I7">
-        <v>4.956488368024567</v>
+        <v>4.711183720044463</v>
       </c>
       <c r="J7">
-        <v>10.20241713293359</v>
+        <v>10.41615626430334</v>
       </c>
       <c r="K7">
-        <v>18.34676058203879</v>
+        <v>16.98800907675837</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.72680451627816</v>
+      </c>
+      <c r="M7">
+        <v>10.2145360696533</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>18.84402980857486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.88046330612173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.459403046328388</v>
+        <v>5.115024700481406</v>
       </c>
       <c r="D8">
-        <v>2.609719852009651</v>
+        <v>2.811342651320613</v>
       </c>
       <c r="E8">
-        <v>29.93518796547425</v>
+        <v>29.71018310294978</v>
       </c>
       <c r="F8">
-        <v>25.82262001458363</v>
+        <v>24.38356672214967</v>
       </c>
       <c r="G8">
-        <v>37.62314558417049</v>
+        <v>35.10277172766824</v>
       </c>
       <c r="H8">
-        <v>3.848782071509953</v>
+        <v>3.729197048628424</v>
       </c>
       <c r="I8">
-        <v>5.238056760464793</v>
+        <v>4.946936293715322</v>
       </c>
       <c r="J8">
-        <v>10.76845562908982</v>
+        <v>10.74916467806405</v>
       </c>
       <c r="K8">
-        <v>19.65305390474084</v>
+        <v>17.99708526503736</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.07343435157751</v>
+      </c>
+      <c r="M8">
+        <v>11.50851803006936</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>20.25961533408286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>19.06633852152634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.874679194919674</v>
+        <v>5.478958821110693</v>
       </c>
       <c r="D9">
-        <v>2.744286939494777</v>
+        <v>3.006098463862184</v>
       </c>
       <c r="E9">
-        <v>34.28296431730286</v>
+        <v>34.00405647524634</v>
       </c>
       <c r="F9">
-        <v>29.4078325669969</v>
+        <v>27.55901408582004</v>
       </c>
       <c r="G9">
-        <v>43.30138041958836</v>
+        <v>40.24957434353633</v>
       </c>
       <c r="H9">
-        <v>4.473626934658408</v>
+        <v>4.320453139742869</v>
       </c>
       <c r="I9">
-        <v>5.757934050372692</v>
+        <v>5.383020590956967</v>
       </c>
       <c r="J9">
-        <v>11.83142098881506</v>
+        <v>11.59415195476495</v>
       </c>
       <c r="K9">
-        <v>22.05185931270261</v>
+        <v>19.9022510029062</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.73043991964545</v>
+      </c>
+      <c r="M9">
+        <v>13.93964201700122</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>22.84423503342395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>21.29101588900617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6.144758162942903</v>
+        <v>5.724535816556439</v>
       </c>
       <c r="D10">
-        <v>2.845963465430526</v>
+        <v>3.161567048896838</v>
       </c>
       <c r="E10">
-        <v>36.30559892869252</v>
+        <v>35.98344122172868</v>
       </c>
       <c r="F10">
-        <v>31.67365319165618</v>
+        <v>29.47654340595562</v>
       </c>
       <c r="G10">
-        <v>46.82022708828692</v>
+        <v>43.91817817082872</v>
       </c>
       <c r="H10">
-        <v>4.868234678829879</v>
+        <v>4.69001936106244</v>
       </c>
       <c r="I10">
-        <v>6.109111404046883</v>
+        <v>5.674475231360455</v>
       </c>
       <c r="J10">
-        <v>12.5102263269419</v>
+        <v>11.8056596425208</v>
       </c>
       <c r="K10">
-        <v>23.55701512621384</v>
+        <v>21.03125980151299</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.04551865995846</v>
+      </c>
+      <c r="M10">
+        <v>15.56627269949549</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>24.46670837857879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>22.60781540552444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.260886354734942</v>
+        <v>5.738856207734944</v>
       </c>
       <c r="D11">
-        <v>2.993593839954566</v>
+        <v>3.376503415844904</v>
       </c>
       <c r="E11">
-        <v>29.76747028163026</v>
+        <v>29.41170688154112</v>
       </c>
       <c r="F11">
-        <v>31.49881126212864</v>
+        <v>29.09808552450615</v>
       </c>
       <c r="G11">
-        <v>46.29048801346333</v>
+        <v>44.42132289977182</v>
       </c>
       <c r="H11">
-        <v>5.147287100600047</v>
+        <v>4.979194223565653</v>
       </c>
       <c r="I11">
-        <v>6.180487893461019</v>
+        <v>5.730290449169206</v>
       </c>
       <c r="J11">
-        <v>12.35364840010455</v>
+        <v>10.96425646449682</v>
       </c>
       <c r="K11">
-        <v>23.34397792069076</v>
+        <v>20.67156476846403</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.58200475687388</v>
+      </c>
+      <c r="M11">
+        <v>15.57640404013137</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>24.16563656384132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>22.13236163970327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>6.352961466553027</v>
+        <v>5.730587919760144</v>
       </c>
       <c r="D12">
-        <v>3.107807807485612</v>
+        <v>3.528275374839762</v>
       </c>
       <c r="E12">
-        <v>23.92986961181065</v>
+        <v>23.53958572807577</v>
       </c>
       <c r="F12">
-        <v>30.91572240384425</v>
+        <v>28.46331085357374</v>
       </c>
       <c r="G12">
-        <v>45.18066388679264</v>
+        <v>43.86236992286757</v>
       </c>
       <c r="H12">
-        <v>5.840777383672609</v>
+        <v>5.698477145862355</v>
       </c>
       <c r="I12">
-        <v>6.177293722740576</v>
+        <v>5.72565581579741</v>
       </c>
       <c r="J12">
-        <v>12.08946837886477</v>
+        <v>10.41910177539714</v>
       </c>
       <c r="K12">
-        <v>22.8943442751015</v>
+        <v>20.20856612667016</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>16.18098726536572</v>
+      </c>
+      <c r="M12">
+        <v>15.31897296887552</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>23.6012697537831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>21.5263861078497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.403857961030875</v>
+        <v>5.7050150708966</v>
       </c>
       <c r="D13">
-        <v>3.203891541746404</v>
+        <v>3.636075125339736</v>
       </c>
       <c r="E13">
-        <v>18.22375363482856</v>
+        <v>17.78615481675573</v>
       </c>
       <c r="F13">
-        <v>29.92688475936876</v>
+        <v>27.57329722108516</v>
       </c>
       <c r="G13">
-        <v>43.45475828330419</v>
+        <v>42.15242419066223</v>
       </c>
       <c r="H13">
-        <v>6.758634766450338</v>
+        <v>6.644452009489976</v>
       </c>
       <c r="I13">
-        <v>6.115524723929163</v>
+        <v>5.675421605471763</v>
       </c>
       <c r="J13">
-        <v>11.70491257302745</v>
+        <v>10.17129918599398</v>
       </c>
       <c r="K13">
-        <v>22.17552511575857</v>
+        <v>19.60604135974903</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.77888558457485</v>
+      </c>
+      <c r="M13">
+        <v>14.81685762886786</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>22.75041195191756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>20.76627805117128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6.416709301353896</v>
+        <v>5.680964824482595</v>
       </c>
       <c r="D14">
-        <v>3.264648132276845</v>
+        <v>3.692232825603155</v>
       </c>
       <c r="E14">
-        <v>14.42239140714734</v>
+        <v>13.93403089912097</v>
       </c>
       <c r="F14">
-        <v>29.03044257833469</v>
+        <v>26.81410473142709</v>
       </c>
       <c r="G14">
-        <v>41.93064941542927</v>
+        <v>40.40693037370302</v>
       </c>
       <c r="H14">
-        <v>7.497835435026916</v>
+        <v>7.40154273721105</v>
       </c>
       <c r="I14">
-        <v>6.046666296854982</v>
+        <v>5.620542740933974</v>
       </c>
       <c r="J14">
-        <v>11.37426986150423</v>
+        <v>10.11717425910028</v>
       </c>
       <c r="K14">
-        <v>21.53259417069313</v>
+        <v>19.1040304765326</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>15.48503067905658</v>
+      </c>
+      <c r="M14">
+        <v>14.34076960781644</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <v>22.00778058720692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>20.14710124500815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.399484312172598</v>
+        <v>5.664814209633024</v>
       </c>
       <c r="D15">
-        <v>3.275210680300704</v>
+        <v>3.696630639810649</v>
       </c>
       <c r="E15">
-        <v>13.53262366678001</v>
+        <v>13.03169165720807</v>
       </c>
       <c r="F15">
-        <v>28.71270196031822</v>
+        <v>26.56019411816284</v>
       </c>
       <c r="G15">
-        <v>41.40422496480836</v>
+        <v>39.72729734213848</v>
       </c>
       <c r="H15">
-        <v>7.668285871979369</v>
+        <v>7.576610374196738</v>
       </c>
       <c r="I15">
-        <v>6.016144218052859</v>
+        <v>5.596678642348468</v>
       </c>
       <c r="J15">
-        <v>11.26410296141187</v>
+        <v>10.15222412644654</v>
       </c>
       <c r="K15">
-        <v>21.3048861142624</v>
+        <v>18.937546962454</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>15.40282203725157</v>
+      </c>
+      <c r="M15">
+        <v>14.15927067730216</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <v>21.75539921311437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>19.95150288980643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.266695164796945</v>
+        <v>5.567877969371902</v>
       </c>
       <c r="D16">
-        <v>3.214277982150847</v>
+        <v>3.592857978237446</v>
       </c>
       <c r="E16">
-        <v>13.40506722073748</v>
+        <v>12.93741142208925</v>
       </c>
       <c r="F16">
-        <v>27.8868597769625</v>
+        <v>25.99477809136926</v>
       </c>
       <c r="G16">
-        <v>40.13792096153503</v>
+        <v>37.64702704704305</v>
       </c>
       <c r="H16">
-        <v>7.387905759373538</v>
+        <v>7.302422672814105</v>
       </c>
       <c r="I16">
-        <v>5.881102579197925</v>
+        <v>5.489238478282722</v>
       </c>
       <c r="J16">
-        <v>11.03140406897016</v>
+        <v>10.56853231143191</v>
       </c>
       <c r="K16">
-        <v>20.75926819686062</v>
+        <v>18.62270364541824</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>15.37475179187421</v>
+      </c>
+      <c r="M16">
+        <v>13.60890795903398</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>21.18237574423989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>19.6064408215619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.154013284784944</v>
+        <v>5.504591154401525</v>
       </c>
       <c r="D17">
-        <v>3.133395014371534</v>
+        <v>3.48612862966648</v>
       </c>
       <c r="E17">
-        <v>15.31729256177652</v>
+        <v>14.90448168314688</v>
       </c>
       <c r="F17">
-        <v>27.74272058675989</v>
+        <v>25.95445742343478</v>
       </c>
       <c r="G17">
-        <v>40.00103615799959</v>
+        <v>37.13192550607241</v>
       </c>
       <c r="H17">
-        <v>6.730118259060903</v>
+        <v>6.640457964025721</v>
       </c>
       <c r="I17">
-        <v>5.812869315246988</v>
+        <v>5.434318491683901</v>
       </c>
       <c r="J17">
-        <v>11.03332924303244</v>
+        <v>10.84244928452044</v>
       </c>
       <c r="K17">
-        <v>20.6906603083488</v>
+        <v>18.63967098264065</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.50478419496456</v>
+      </c>
+      <c r="M17">
+        <v>13.43071201209127</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>21.14927226329388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>19.6622804423336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.074144767610364</v>
+        <v>5.479507559361124</v>
       </c>
       <c r="D18">
-        <v>3.028934949199703</v>
+        <v>3.361570305187382</v>
       </c>
       <c r="E18">
-        <v>19.61830749367467</v>
+        <v>19.26480301481304</v>
       </c>
       <c r="F18">
-        <v>28.20005467788955</v>
+        <v>26.42036771994295</v>
       </c>
       <c r="G18">
-        <v>40.87890169574067</v>
+        <v>37.78864280983091</v>
       </c>
       <c r="H18">
-        <v>5.776398045558363</v>
+        <v>5.670480696947157</v>
       </c>
       <c r="I18">
-        <v>5.799179981413974</v>
+        <v>5.422432891343659</v>
       </c>
       <c r="J18">
-        <v>11.24555022042394</v>
+        <v>11.1456038976684</v>
       </c>
       <c r="K18">
-        <v>21.0563722235126</v>
+        <v>18.9939531853741</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.82085667798962</v>
+      </c>
+      <c r="M18">
+        <v>13.6020779188972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>21.60048978113972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>20.1174386153391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.998666364403629</v>
+        <v>5.500832072078589</v>
       </c>
       <c r="D19">
-        <v>2.926491924534958</v>
+        <v>3.241356766294783</v>
       </c>
       <c r="E19">
-        <v>25.70806211114188</v>
+        <v>25.39294479929233</v>
       </c>
       <c r="F19">
-        <v>29.05005443915597</v>
+        <v>27.21643582382497</v>
       </c>
       <c r="G19">
-        <v>42.40908171760586</v>
+        <v>39.16764995296832</v>
       </c>
       <c r="H19">
-        <v>4.926141515482884</v>
+        <v>4.792792527742308</v>
       </c>
       <c r="I19">
-        <v>5.836244901873636</v>
+        <v>5.453489857991157</v>
       </c>
       <c r="J19">
-        <v>11.58736638860863</v>
+        <v>11.47740556234698</v>
       </c>
       <c r="K19">
-        <v>21.67755275842077</v>
+        <v>19.53915363162902</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.22680982486123</v>
+      </c>
+      <c r="M19">
+        <v>14.00623207685424</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>22.35645020872727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>20.82204823390569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.016296251605575</v>
+        <v>5.665022558082269</v>
       </c>
       <c r="D20">
-        <v>2.824763026585373</v>
+        <v>3.124367713532499</v>
       </c>
       <c r="E20">
-        <v>35.74244576009614</v>
+        <v>35.43435011357069</v>
       </c>
       <c r="F20">
-        <v>31.00921163416997</v>
+        <v>28.95665171655002</v>
       </c>
       <c r="G20">
-        <v>45.77302081398868</v>
+        <v>42.53614094740231</v>
       </c>
       <c r="H20">
-        <v>4.761215080232748</v>
+        <v>4.591040718844961</v>
       </c>
       <c r="I20">
-        <v>6.014969541172325</v>
+        <v>5.60080012562697</v>
       </c>
       <c r="J20">
-        <v>12.30177188276152</v>
+        <v>11.91908917187881</v>
       </c>
       <c r="K20">
-        <v>23.06990740569767</v>
+        <v>20.68187312982299</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.92355254302441</v>
+      </c>
+      <c r="M20">
+        <v>15.10505939847353</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>23.97717716220097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>22.24528750219401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>6.226654174346634</v>
+        <v>5.862720685112476</v>
       </c>
       <c r="D21">
-        <v>2.883273001877384</v>
+        <v>3.241598542704204</v>
       </c>
       <c r="E21">
-        <v>38.56558044039057</v>
+        <v>38.21430357633713</v>
       </c>
       <c r="F21">
-        <v>32.89959890206887</v>
+        <v>30.30708928758846</v>
       </c>
       <c r="G21">
-        <v>48.7455948076491</v>
+        <v>47.13304889974606</v>
       </c>
       <c r="H21">
-        <v>5.119699629410499</v>
+        <v>4.922949451933362</v>
       </c>
       <c r="I21">
-        <v>6.295382266842712</v>
+        <v>5.823549376860567</v>
       </c>
       <c r="J21">
-        <v>12.89367692208543</v>
+        <v>11.13326864054455</v>
       </c>
       <c r="K21">
-        <v>24.35045101500373</v>
+        <v>21.47775109042891</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.12503370683239</v>
+      </c>
+      <c r="M21">
+        <v>16.2719293130809</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>25.36669099145081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>23.16012040161036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.383283164250571</v>
+        <v>5.983913511918368</v>
       </c>
       <c r="D22">
-        <v>2.923529842067139</v>
+        <v>3.32271173512435</v>
       </c>
       <c r="E22">
-        <v>39.90710831224121</v>
+        <v>39.52717851818136</v>
       </c>
       <c r="F22">
-        <v>34.05534858066547</v>
+        <v>31.10888130276174</v>
       </c>
       <c r="G22">
-        <v>50.54854914463549</v>
+        <v>50.07898892261352</v>
       </c>
       <c r="H22">
-        <v>5.330315614185655</v>
+        <v>5.116702243154004</v>
       </c>
       <c r="I22">
-        <v>6.471357866331607</v>
+        <v>5.962002076339688</v>
       </c>
       <c r="J22">
-        <v>13.25683925630087</v>
+        <v>10.55408838658009</v>
       </c>
       <c r="K22">
-        <v>25.14733816040684</v>
+        <v>21.96032870717672</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.23556539117508</v>
+      </c>
+      <c r="M22">
+        <v>16.98491652016033</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="Q22">
-        <v>26.21340281523816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>23.69473322699606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>6.321652125985636</v>
+        <v>5.918807464015996</v>
       </c>
       <c r="D23">
-        <v>2.900516835377204</v>
+        <v>3.273471352095787</v>
       </c>
       <c r="E23">
-        <v>39.19753365856535</v>
+        <v>38.83382175925799</v>
       </c>
       <c r="F23">
-        <v>33.47015579538236</v>
+        <v>30.74705639266502</v>
       </c>
       <c r="G23">
-        <v>49.64175596368938</v>
+        <v>48.3548986714297</v>
       </c>
       <c r="H23">
-        <v>5.219133185041562</v>
+        <v>5.015068027394375</v>
       </c>
       <c r="I23">
-        <v>6.378604738761077</v>
+        <v>5.889194126820755</v>
       </c>
       <c r="J23">
-        <v>13.07510737592906</v>
+        <v>11.01029270727936</v>
       </c>
       <c r="K23">
-        <v>24.75943011234622</v>
+        <v>21.76319909480817</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.21855069436796</v>
+      </c>
+      <c r="M23">
+        <v>16.65226555924473</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>25.78854072810101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>23.46672294151379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.045565281280594</v>
+        <v>5.66981604861502</v>
       </c>
       <c r="D24">
-        <v>2.81296550966439</v>
+        <v>3.10783262035917</v>
       </c>
       <c r="E24">
-        <v>36.40149327567722</v>
+        <v>36.09379200254084</v>
       </c>
       <c r="F24">
-        <v>31.12781112707303</v>
+        <v>29.07168679468129</v>
       </c>
       <c r="G24">
-        <v>45.98945129726162</v>
+        <v>42.72487512616771</v>
       </c>
       <c r="H24">
-        <v>4.789030959358785</v>
+        <v>4.618191046295874</v>
       </c>
       <c r="I24">
-        <v>6.019633310498176</v>
+        <v>5.60307554477486</v>
       </c>
       <c r="J24">
-        <v>12.35066005098698</v>
+        <v>11.974369884455</v>
       </c>
       <c r="K24">
-        <v>23.18126973720302</v>
+        <v>20.78614812561403</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.00314465933348</v>
+      </c>
+      <c r="M24">
+        <v>15.18047164850051</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>24.08444086801853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>22.34890438772882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.731160976235508</v>
+        <v>5.383069042681951</v>
       </c>
       <c r="D25">
-        <v>2.711863836442705</v>
+        <v>2.957265823423657</v>
       </c>
       <c r="E25">
-        <v>33.15644430283891</v>
+        <v>32.89341062407461</v>
       </c>
       <c r="F25">
-        <v>28.42857060996922</v>
+        <v>26.71019319304257</v>
       </c>
       <c r="G25">
-        <v>41.74940161539926</v>
+        <v>38.70585851457854</v>
       </c>
       <c r="H25">
-        <v>4.307597573359912</v>
+        <v>4.164113914399279</v>
       </c>
       <c r="I25">
-        <v>5.618687000784124</v>
+        <v>5.268369727010673</v>
       </c>
       <c r="J25">
-        <v>11.53269335845707</v>
+        <v>11.43813955842299</v>
       </c>
       <c r="K25">
-        <v>21.36816807918044</v>
+        <v>19.36511403154778</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.53354073653946</v>
+      </c>
+      <c r="M25">
+        <v>13.2487433059334</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="Q25">
-        <v>22.1291211239405</v>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>20.69056700220413</v>
       </c>
     </row>
   </sheetData>
